--- a/ExpectedMove/expected_moves.xlsx
+++ b/ExpectedMove/expected_moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dallincoons/Projects/expected_move/ExpectedMove/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1838118-381F-7F41-9E5B-ABB1A0B0C3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83442EC2-C3D2-DD47-8FFD-88CD09F3CA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42500" yWindow="920" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -360,20 +360,28 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>43913</v>
+        <v>43920</v>
       </c>
       <c r="B2" s="2">
-        <v>43917</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>43924</v>
+      </c>
+      <c r="C2" s="1">
+        <v>255.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>263.33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>247.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>248.89</v>
+      </c>
       <c r="G2" s="1">
-        <v>251.554</v>
+        <v>274.065</v>
       </c>
       <c r="H2" s="1">
-        <v>206.04599999999999</v>
+        <v>232.77500000000001</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -397,28 +405,28 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="B3" s="2">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="C3" s="1">
-        <v>241.18</v>
+        <v>228.19</v>
       </c>
       <c r="D3" s="1">
-        <v>256.89999999999998</v>
+        <v>262.8</v>
       </c>
       <c r="E3" s="1">
-        <v>228.02</v>
+        <v>218.26</v>
       </c>
       <c r="F3" s="1">
-        <v>228.8</v>
+        <v>253.42</v>
       </c>
       <c r="G3" s="1">
-        <v>292.32</v>
+        <v>251.554</v>
       </c>
       <c r="H3" s="1">
-        <v>246.32</v>
+        <v>206.04599999999999</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -442,28 +450,28 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="B4" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="C4" s="1">
-        <v>275.3</v>
+        <v>241.18</v>
       </c>
       <c r="D4" s="1">
-        <v>288.52</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>247.68</v>
+        <v>228.02</v>
       </c>
       <c r="F4" s="1">
-        <v>248.11</v>
+        <v>228.8</v>
       </c>
       <c r="G4" s="1">
-        <v>313.53199999999998</v>
+        <v>292.32</v>
       </c>
       <c r="H4" s="1">
-        <v>281.38799999999998</v>
+        <v>246.32</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -487,28 +495,28 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="B5" s="2">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="C5" s="1">
-        <v>298.20999999999998</v>
+        <v>275.3</v>
       </c>
       <c r="D5" s="1">
-        <v>313.83999999999997</v>
+        <v>288.52</v>
       </c>
       <c r="E5" s="1">
-        <v>290.23</v>
+        <v>247.68</v>
       </c>
       <c r="F5" s="1">
-        <v>297.45999999999998</v>
+        <v>248.11</v>
       </c>
       <c r="G5" s="1">
-        <v>314.45999999999998</v>
+        <v>313.53199999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>278.06</v>
+        <v>281.38799999999998</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -532,28 +540,28 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>43885</v>
+        <v>43892</v>
       </c>
       <c r="B6" s="2">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="C6" s="1">
-        <v>323.14</v>
+        <v>298.20999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>337.06</v>
+        <v>313.83999999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>285.54000000000002</v>
+        <v>290.23</v>
       </c>
       <c r="F6" s="1">
-        <v>296.26</v>
+        <v>297.45999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>338.75</v>
+        <v>314.45999999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>328.24</v>
+        <v>278.06</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -577,28 +585,28 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>43879</v>
+        <v>43885</v>
       </c>
       <c r="B7" s="2">
-        <v>43882</v>
+        <v>43889</v>
       </c>
       <c r="C7" s="1">
-        <v>336.51</v>
+        <v>323.14</v>
       </c>
       <c r="D7" s="1">
-        <v>339.08</v>
+        <v>337.06</v>
       </c>
       <c r="E7" s="1">
-        <v>332.58</v>
+        <v>285.54000000000002</v>
       </c>
       <c r="F7" s="1">
-        <v>333.48</v>
+        <v>296.26</v>
       </c>
       <c r="G7" s="1">
-        <v>341.637</v>
+        <v>338.75</v>
       </c>
       <c r="H7" s="1">
-        <v>333.56299999999999</v>
+        <v>328.24</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -622,28 +630,28 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>43871</v>
+        <v>43879</v>
       </c>
       <c r="B8" s="2">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="C8" s="1">
-        <v>331.23</v>
+        <v>336.51</v>
       </c>
       <c r="D8" s="1">
-        <v>338.12</v>
+        <v>339.08</v>
       </c>
       <c r="E8" s="1">
-        <v>331.19</v>
+        <v>332.58</v>
       </c>
       <c r="F8" s="1">
-        <v>337.6</v>
+        <v>333.48</v>
       </c>
       <c r="G8" s="1">
-        <v>337.32600000000002</v>
+        <v>341.637</v>
       </c>
       <c r="H8" s="1">
-        <v>327.07799999999997</v>
+        <v>333.56299999999999</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -667,28 +675,28 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>43864</v>
+        <v>43871</v>
       </c>
       <c r="B9" s="2">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="C9" s="1">
-        <v>323.35000000000002</v>
+        <v>331.23</v>
       </c>
       <c r="D9" s="1">
-        <v>334.49</v>
+        <v>338.12</v>
       </c>
       <c r="E9" s="1">
-        <v>323.22000000000003</v>
+        <v>331.19</v>
       </c>
       <c r="F9" s="1">
-        <v>332.2</v>
+        <v>337.6</v>
       </c>
       <c r="G9" s="1">
-        <v>327.82</v>
+        <v>337.32600000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>315.64</v>
+        <v>327.07799999999997</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -712,28 +720,28 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>43857</v>
+        <v>43864</v>
       </c>
       <c r="B10" s="2">
-        <v>43861</v>
+        <v>43868</v>
       </c>
       <c r="C10" s="1">
-        <v>323.02999999999997</v>
+        <v>323.35000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>328.63</v>
+        <v>334.49</v>
       </c>
       <c r="E10" s="1">
-        <v>320.73</v>
+        <v>323.22000000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>321.73</v>
+        <v>332.2</v>
       </c>
       <c r="G10" s="1">
-        <v>334.03699999999998</v>
+        <v>327.82</v>
       </c>
       <c r="H10" s="1">
-        <v>323.50400000000002</v>
+        <v>315.64</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -757,28 +765,28 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>43851</v>
+        <v>43857</v>
       </c>
       <c r="B11" s="2">
-        <v>43854</v>
+        <v>43861</v>
       </c>
       <c r="C11" s="1">
-        <v>332.44</v>
+        <v>323.02999999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>332.53</v>
+        <v>328.63</v>
       </c>
       <c r="E11" s="1">
-        <v>327.36</v>
+        <v>320.73</v>
       </c>
       <c r="F11" s="1">
-        <v>328.77</v>
+        <v>321.73</v>
       </c>
       <c r="G11" s="1">
-        <v>334.07</v>
+        <v>334.03699999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>329.83</v>
+        <v>323.50400000000002</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -802,28 +810,28 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>43843</v>
+        <v>43851</v>
       </c>
       <c r="B12" s="2">
-        <v>43847</v>
+        <v>43854</v>
       </c>
       <c r="C12" s="1">
-        <v>326.39</v>
+        <v>332.44</v>
       </c>
       <c r="D12" s="1">
-        <v>332.18</v>
+        <v>332.53</v>
       </c>
       <c r="E12" s="1">
-        <v>325.92</v>
+        <v>327.36</v>
       </c>
       <c r="F12" s="1">
-        <v>331.95</v>
+        <v>328.77</v>
       </c>
       <c r="G12" s="1">
-        <v>329.14</v>
+        <v>334.07</v>
       </c>
       <c r="H12" s="1">
-        <v>322.27999999999997</v>
+        <v>329.83</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -847,28 +855,28 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>43836</v>
+        <v>43843</v>
       </c>
       <c r="B13" s="2">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="C13" s="1">
-        <v>320.49</v>
+        <v>326.39</v>
       </c>
       <c r="D13" s="1">
-        <v>327.45999999999998</v>
+        <v>332.18</v>
       </c>
       <c r="E13" s="1">
-        <v>325.70999999999998</v>
+        <v>325.92</v>
       </c>
       <c r="F13" s="1">
-        <v>325.70999999999998</v>
+        <v>331.95</v>
       </c>
       <c r="G13" s="1">
-        <v>325.54000000000002</v>
+        <v>329.14</v>
       </c>
       <c r="H13" s="1">
-        <v>319.27999999999997</v>
+        <v>322.27999999999997</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -892,28 +900,28 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>43829</v>
+        <v>43836</v>
       </c>
       <c r="B14" s="2">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="C14" s="1">
-        <v>322.95</v>
+        <v>320.49</v>
       </c>
       <c r="D14" s="1">
-        <v>324.89</v>
+        <v>327.45999999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>320.14999999999998</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>322.41000000000003</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="G14" s="1">
-        <v>326.23</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>319.5</v>
+        <v>319.27999999999997</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -937,28 +945,28 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>43822</v>
+        <v>43829</v>
       </c>
       <c r="B15" s="2">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="C15" s="1">
-        <v>321.58999999999997</v>
+        <v>322.95</v>
       </c>
       <c r="D15" s="1">
-        <v>323.8</v>
+        <v>324.89</v>
       </c>
       <c r="E15" s="1">
-        <v>320.89999999999998</v>
+        <v>320.14999999999998</v>
       </c>
       <c r="F15" s="1">
-        <v>322.86</v>
+        <v>322.41000000000003</v>
       </c>
       <c r="G15" s="1">
-        <v>324.20999999999998</v>
+        <v>326.23</v>
       </c>
       <c r="H15" s="1">
-        <v>317.23</v>
+        <v>319.5</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -982,28 +990,28 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>43815</v>
+        <v>43822</v>
       </c>
       <c r="B16" s="2">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="C16" s="1">
-        <v>319.22000000000003</v>
+        <v>321.58999999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>321.97000000000003</v>
+        <v>323.8</v>
       </c>
       <c r="E16" s="1">
-        <v>317.25</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="F16" s="1">
-        <v>320.73</v>
+        <v>322.86</v>
       </c>
       <c r="G16" s="1">
-        <v>320.94</v>
+        <v>324.20999999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>313.70999999999998</v>
+        <v>317.23</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1027,28 +1035,28 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="B17" s="2">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="C17" s="1">
-        <v>314.44</v>
+        <v>319.22000000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>318.67</v>
+        <v>321.97000000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>312.81</v>
+        <v>317.25</v>
       </c>
       <c r="F17" s="1">
-        <v>317.32</v>
+        <v>320.73</v>
       </c>
       <c r="G17" s="1">
-        <v>318.19</v>
+        <v>320.94</v>
       </c>
       <c r="H17" s="1">
-        <v>311.56</v>
+        <v>313.70999999999998</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1072,28 +1080,28 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="B18" s="2">
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="C18" s="1">
-        <v>314.58999999999997</v>
+        <v>314.44</v>
       </c>
       <c r="D18" s="1">
-        <v>315.31</v>
+        <v>318.67</v>
       </c>
       <c r="E18" s="1">
-        <v>307.13</v>
+        <v>312.81</v>
       </c>
       <c r="F18" s="1">
-        <v>314.87</v>
+        <v>317.32</v>
       </c>
       <c r="G18" s="1">
-        <v>317.69</v>
+        <v>318.19</v>
       </c>
       <c r="H18" s="1">
-        <v>310.92</v>
+        <v>311.56</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1117,28 +1125,28 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="B19" s="2">
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="C19" s="1">
-        <v>311.98</v>
+        <v>314.58999999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>315.48</v>
+        <v>315.31</v>
       </c>
       <c r="E19" s="1">
-        <v>311.98</v>
+        <v>307.13</v>
       </c>
       <c r="F19" s="1">
-        <v>314.31</v>
+        <v>314.87</v>
       </c>
       <c r="G19" s="1">
-        <v>314.56</v>
+        <v>317.69</v>
       </c>
       <c r="H19" s="1">
-        <v>307.39</v>
+        <v>310.92</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1162,28 +1170,28 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="B20" s="2">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="C20" s="1">
-        <v>311.52999999999997</v>
+        <v>311.98</v>
       </c>
       <c r="D20" s="1">
-        <v>312.69</v>
+        <v>315.48</v>
       </c>
       <c r="E20" s="1">
-        <v>309.06</v>
+        <v>311.98</v>
       </c>
       <c r="F20" s="1">
-        <v>310.95999999999998</v>
+        <v>314.31</v>
       </c>
       <c r="G20" s="1">
-        <v>315.3</v>
+        <v>314.56</v>
       </c>
       <c r="H20" s="1">
-        <v>308.25</v>
+        <v>307.39</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1207,28 +1215,28 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="B21" s="2">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="C21" s="1">
-        <v>307.42</v>
+        <v>311.52999999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>311.83999999999997</v>
+        <v>312.69</v>
       </c>
       <c r="E21" s="1">
-        <v>307.27</v>
+        <v>309.06</v>
       </c>
       <c r="F21" s="1">
-        <v>311.79000000000002</v>
+        <v>310.95999999999998</v>
       </c>
       <c r="G21" s="1">
-        <v>312.52</v>
+        <v>315.3</v>
       </c>
       <c r="H21" s="1">
-        <v>305.36</v>
+        <v>308.25</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1252,28 +1260,28 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="B22" s="2">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="C22" s="1">
-        <v>307.85000000000002</v>
+        <v>307.42</v>
       </c>
       <c r="D22" s="1">
-        <v>309.64999999999998</v>
+        <v>311.83999999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>306.06</v>
+        <v>307.27</v>
       </c>
       <c r="F22" s="1">
-        <v>308.94</v>
+        <v>311.79000000000002</v>
       </c>
       <c r="G22" s="1">
-        <v>309.85000000000002</v>
+        <v>312.52</v>
       </c>
       <c r="H22" s="1">
-        <v>302.44</v>
+        <v>305.36</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1297,28 +1305,28 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>43766</v>
+        <v>43773</v>
       </c>
       <c r="B23" s="2">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="C23" s="1">
-        <v>302.94</v>
+        <v>307.85000000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>306.19</v>
+        <v>309.64999999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>301.73</v>
+        <v>306.06</v>
       </c>
       <c r="F23" s="1">
-        <v>306.14</v>
+        <v>308.94</v>
       </c>
       <c r="G23" s="1">
-        <v>305.2</v>
+        <v>309.85000000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>298.01</v>
+        <v>302.44</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1342,28 +1350,28 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>43759</v>
+        <v>43766</v>
       </c>
       <c r="B24" s="2">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="C24" s="1">
-        <v>299.42</v>
+        <v>302.94</v>
       </c>
       <c r="D24" s="1">
-        <v>302.2</v>
+        <v>306.19</v>
       </c>
       <c r="E24" s="1">
-        <v>298.5</v>
+        <v>301.73</v>
       </c>
       <c r="F24" s="1">
-        <v>301.60000000000002</v>
+        <v>306.14</v>
       </c>
       <c r="G24" s="1">
-        <v>301.77999999999997</v>
+        <v>305.2</v>
       </c>
       <c r="H24" s="1">
-        <v>294.14999999999998</v>
+        <v>298.01</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1387,28 +1395,28 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>43752</v>
+        <v>43759</v>
       </c>
       <c r="B25" s="2">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="C25" s="1">
-        <v>295.93</v>
+        <v>299.42</v>
       </c>
       <c r="D25" s="1">
-        <v>300.24</v>
+        <v>302.2</v>
       </c>
       <c r="E25" s="1">
-        <v>295.57</v>
+        <v>298.5</v>
       </c>
       <c r="F25" s="1">
-        <v>297.97000000000003</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="G25" s="1">
-        <v>300.29000000000002</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>292.26</v>
+        <v>294.14999999999998</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1432,28 +1440,28 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>43745</v>
+        <v>43752</v>
       </c>
       <c r="B26" s="2">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="C26" s="1">
-        <v>293.47000000000003</v>
+        <v>295.93</v>
       </c>
       <c r="D26" s="1">
-        <v>298.74</v>
+        <v>300.24</v>
       </c>
       <c r="E26" s="1">
-        <v>288.49</v>
+        <v>295.57</v>
       </c>
       <c r="F26" s="1">
-        <v>296.27999999999997</v>
+        <v>297.97000000000003</v>
       </c>
       <c r="G26" s="1">
-        <v>298.93</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>289.74</v>
+        <v>292.26</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1477,28 +1485,28 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>43738</v>
+        <v>43745</v>
       </c>
       <c r="B27" s="2">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="C27" s="1">
-        <v>295.97000000000003</v>
+        <v>293.47000000000003</v>
       </c>
       <c r="D27" s="1">
-        <v>298.45999999999998</v>
+        <v>298.74</v>
       </c>
       <c r="E27" s="1">
-        <v>284.82</v>
+        <v>288.49</v>
       </c>
       <c r="F27" s="1">
-        <v>294.35000000000002</v>
+        <v>296.27999999999997</v>
       </c>
       <c r="G27" s="1">
-        <v>300.01</v>
+        <v>298.93</v>
       </c>
       <c r="H27" s="1">
-        <v>290.77999999999997</v>
+        <v>289.74</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1522,28 +1530,28 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="B28" s="2">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="C28" s="1">
-        <v>297.55</v>
+        <v>295.97000000000003</v>
       </c>
       <c r="D28" s="1">
-        <v>299.83999999999997</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="E28" s="1">
-        <v>293.69</v>
+        <v>284.82</v>
       </c>
       <c r="F28" s="1">
-        <v>295.39999999999998</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="G28" s="1">
-        <v>302.43</v>
+        <v>300.01</v>
       </c>
       <c r="H28" s="1">
-        <v>294.13</v>
+        <v>290.77999999999997</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1567,28 +1575,28 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>43724</v>
+        <v>43731</v>
       </c>
       <c r="B29" s="2">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="C29" s="1">
+        <v>297.55</v>
+      </c>
+      <c r="D29" s="1">
         <v>299.83999999999997</v>
       </c>
-      <c r="D29" s="1">
-        <v>302.63</v>
-      </c>
       <c r="E29" s="1">
-        <v>297.41000000000003</v>
+        <v>293.69</v>
       </c>
       <c r="F29" s="1">
-        <v>298.27999999999997</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="G29" s="1">
-        <v>304.77999999999997</v>
+        <v>302.43</v>
       </c>
       <c r="H29" s="1">
-        <v>297.39999999999998</v>
+        <v>294.13</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1612,28 +1620,28 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>43717</v>
+        <v>43724</v>
       </c>
       <c r="B30" s="2">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="C30" s="1">
-        <v>299.14</v>
+        <v>299.83999999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>302.45999999999998</v>
+        <v>302.63</v>
       </c>
       <c r="E30" s="1">
-        <v>295.97000000000003</v>
+        <v>297.41000000000003</v>
       </c>
       <c r="F30" s="1">
-        <v>301.08999999999997</v>
+        <v>298.27999999999997</v>
       </c>
       <c r="G30" s="1">
-        <v>302.2</v>
+        <v>304.77999999999997</v>
       </c>
       <c r="H30" s="1">
-        <v>293.89999999999998</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1657,28 +1665,28 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>43711</v>
+        <v>43717</v>
       </c>
       <c r="B31" s="2">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="C31" s="1">
-        <v>290.57</v>
+        <v>299.14</v>
       </c>
       <c r="D31" s="1">
-        <v>298.83</v>
+        <v>302.45999999999998</v>
       </c>
       <c r="E31" s="1">
-        <v>289.27</v>
+        <v>295.97000000000003</v>
       </c>
       <c r="F31" s="1">
-        <v>298.05</v>
+        <v>301.08999999999997</v>
       </c>
       <c r="G31" s="1">
-        <v>297.49</v>
+        <v>302.2</v>
       </c>
       <c r="H31" s="1">
-        <v>287.39</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1702,28 +1710,28 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>43703</v>
+        <v>43711</v>
       </c>
       <c r="B32" s="2">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="C32" s="1">
-        <v>287.27</v>
+        <v>290.57</v>
       </c>
       <c r="D32" s="1">
-        <v>294.24</v>
+        <v>298.83</v>
       </c>
       <c r="E32" s="1">
-        <v>285.25</v>
+        <v>289.27</v>
       </c>
       <c r="F32" s="1">
-        <v>292.45</v>
+        <v>298.05</v>
       </c>
       <c r="G32" s="1">
-        <v>290.10000000000002</v>
+        <v>297.49</v>
       </c>
       <c r="H32" s="1">
-        <v>279.60000000000002</v>
+        <v>287.39</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1747,28 +1755,28 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>43696</v>
+        <v>43703</v>
       </c>
       <c r="B33" s="2">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="C33" s="1">
-        <v>292.19</v>
+        <v>287.27</v>
       </c>
       <c r="D33" s="1">
-        <v>293.93</v>
+        <v>294.24</v>
       </c>
       <c r="E33" s="1">
-        <v>283.47000000000003</v>
+        <v>285.25</v>
       </c>
       <c r="F33" s="1">
-        <v>284.85000000000002</v>
+        <v>292.45</v>
       </c>
       <c r="G33" s="1">
-        <v>293.75</v>
+        <v>290.10000000000002</v>
       </c>
       <c r="H33" s="1">
-        <v>283.94</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1792,28 +1800,28 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>43689</v>
+        <v>43696</v>
       </c>
       <c r="B34" s="2">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="C34" s="1">
-        <v>289.95999999999998</v>
+        <v>292.19</v>
       </c>
       <c r="D34" s="1">
-        <v>294.14999999999998</v>
+        <v>293.93</v>
       </c>
       <c r="E34" s="1">
-        <v>282.39</v>
+        <v>283.47000000000003</v>
       </c>
       <c r="F34" s="1">
-        <v>288.85000000000002</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="G34" s="1">
-        <v>296.31</v>
+        <v>293.75</v>
       </c>
       <c r="H34" s="1">
-        <v>286.95</v>
+        <v>283.94</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1837,28 +1845,28 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>43682</v>
+        <v>43689</v>
       </c>
       <c r="B35" s="2">
-        <v>43686</v>
+        <v>43693</v>
       </c>
       <c r="C35" s="1">
-        <v>288.08999999999997</v>
+        <v>289.95999999999998</v>
       </c>
       <c r="D35" s="1">
-        <v>293.62</v>
+        <v>294.14999999999998</v>
       </c>
       <c r="E35" s="1">
-        <v>281.72000000000003</v>
+        <v>282.39</v>
       </c>
       <c r="F35" s="1">
-        <v>291.62</v>
+        <v>288.85000000000002</v>
       </c>
       <c r="G35" s="1">
-        <v>296.85000000000002</v>
+        <v>296.31</v>
       </c>
       <c r="H35" s="1">
-        <v>288.33</v>
+        <v>286.95</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1882,28 +1890,28 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>43675</v>
+        <v>43682</v>
       </c>
       <c r="B36" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="C36" s="1">
-        <v>301.88</v>
+        <v>288.08999999999997</v>
       </c>
       <c r="D36" s="1">
-        <v>301.93</v>
+        <v>293.62</v>
       </c>
       <c r="E36" s="1">
-        <v>290.89999999999998</v>
+        <v>281.72000000000003</v>
       </c>
       <c r="F36" s="1">
-        <v>292.62</v>
+        <v>291.62</v>
       </c>
       <c r="G36" s="1">
-        <v>305.18</v>
+        <v>296.85000000000002</v>
       </c>
       <c r="H36" s="1">
-        <v>298.86</v>
+        <v>288.33</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1927,28 +1935,28 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>43668</v>
+        <v>43675</v>
       </c>
       <c r="B37" s="2">
-        <v>43672</v>
+        <v>43679</v>
       </c>
       <c r="C37" s="1">
-        <v>297.61</v>
+        <v>301.88</v>
       </c>
       <c r="D37" s="1">
-        <v>302.23</v>
+        <v>301.93</v>
       </c>
       <c r="E37" s="1">
-        <v>297.04000000000002</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="F37" s="1">
-        <v>302.01</v>
+        <v>292.62</v>
       </c>
       <c r="G37" s="1">
-        <v>301.06</v>
+        <v>305.18</v>
       </c>
       <c r="H37" s="1">
-        <v>293.26</v>
+        <v>298.86</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1972,28 +1980,28 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>43661</v>
+        <v>43668</v>
       </c>
       <c r="B38" s="2">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="C38" s="1">
-        <v>301.13</v>
+        <v>297.61</v>
       </c>
       <c r="D38" s="1">
-        <v>301.13</v>
+        <v>302.23</v>
       </c>
       <c r="E38" s="1">
-        <v>296.7</v>
+        <v>297.04000000000002</v>
       </c>
       <c r="F38" s="1">
-        <v>297.17</v>
+        <v>302.01</v>
       </c>
       <c r="G38" s="1">
-        <v>303.86</v>
+        <v>301.06</v>
       </c>
       <c r="H38" s="1">
-        <v>297.49</v>
+        <v>293.26</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2017,28 +2025,28 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="B39" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="C39" s="1">
-        <v>297.01</v>
+        <v>301.13</v>
       </c>
       <c r="D39" s="1">
-        <v>300.73</v>
+        <v>301.13</v>
       </c>
       <c r="E39" s="1">
-        <v>295.48</v>
+        <v>296.7</v>
       </c>
       <c r="F39" s="1">
-        <v>300.64999999999998</v>
+        <v>297.17</v>
       </c>
       <c r="G39" s="1">
-        <v>301.94</v>
+        <v>303.86</v>
       </c>
       <c r="H39" s="1">
-        <v>295</v>
+        <v>297.49</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2062,28 +2070,28 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>43647</v>
+        <v>43654</v>
       </c>
       <c r="B40" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="C40" s="1">
-        <v>296.68</v>
+        <v>297.01</v>
       </c>
       <c r="D40" s="1">
-        <v>298.82</v>
+        <v>300.73</v>
       </c>
       <c r="E40" s="1">
-        <v>294.33</v>
+        <v>295.48</v>
       </c>
       <c r="F40" s="1">
-        <v>298.45999999999998</v>
+        <v>300.64999999999998</v>
       </c>
       <c r="G40" s="1">
-        <v>296.95999999999998</v>
+        <v>301.94</v>
       </c>
       <c r="H40" s="1">
-        <v>289.04000000000002</v>
+        <v>295</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2107,28 +2115,28 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>43640</v>
+        <v>43647</v>
       </c>
       <c r="B41" s="2">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="C41" s="1">
-        <v>294.23</v>
+        <v>296.68</v>
       </c>
       <c r="D41" s="1">
-        <v>294.58</v>
+        <v>298.82</v>
       </c>
       <c r="E41" s="1">
-        <v>290.35000000000002</v>
+        <v>294.33</v>
       </c>
       <c r="F41" s="1">
-        <v>293</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="G41" s="1">
-        <v>298.08999999999997</v>
+        <v>296.95999999999998</v>
       </c>
       <c r="H41" s="1">
-        <v>289.87</v>
+        <v>289.04000000000002</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2152,28 +2160,28 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>43633</v>
+        <v>43640</v>
       </c>
       <c r="B42" s="2">
-        <v>43637</v>
+        <v>43644</v>
       </c>
       <c r="C42" s="1">
-        <v>289.52</v>
+        <v>294.23</v>
       </c>
       <c r="D42" s="1">
-        <v>296.31</v>
+        <v>294.58</v>
       </c>
       <c r="E42" s="1">
-        <v>289.18</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="F42" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G42" s="1">
-        <v>293.19</v>
+        <v>298.08999999999997</v>
       </c>
       <c r="H42" s="1">
-        <v>285.33999999999997</v>
+        <v>289.87</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2197,28 +2205,28 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>43626</v>
+        <v>43633</v>
       </c>
       <c r="B43" s="2">
-        <v>43630</v>
+        <v>43637</v>
       </c>
       <c r="C43" s="1">
-        <v>289.37</v>
+        <v>289.52</v>
       </c>
       <c r="D43" s="1">
-        <v>291.39999999999998</v>
+        <v>296.31</v>
       </c>
       <c r="E43" s="1">
-        <v>287.82</v>
+        <v>289.18</v>
       </c>
       <c r="F43" s="1">
-        <v>289.26</v>
+        <v>294</v>
       </c>
       <c r="G43" s="1">
-        <v>291.85000000000002</v>
+        <v>293.19</v>
       </c>
       <c r="H43" s="1">
-        <v>283.44</v>
+        <v>285.33999999999997</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2242,28 +2250,28 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>43619</v>
+        <v>43626</v>
       </c>
       <c r="B44" s="2">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="C44" s="1">
-        <v>275.31</v>
+        <v>289.37</v>
       </c>
       <c r="D44" s="1">
-        <v>288.85000000000002</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="E44" s="1">
-        <v>273.08999999999997</v>
+        <v>287.82</v>
       </c>
       <c r="F44" s="1">
-        <v>287.64999999999998</v>
+        <v>289.26</v>
       </c>
       <c r="G44" s="1">
-        <v>279.93</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="H44" s="1">
-        <v>270.63</v>
+        <v>283.44</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2287,28 +2295,28 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>43613</v>
+        <v>43619</v>
       </c>
       <c r="B45" s="2">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="C45" s="1">
-        <v>283.08999999999997</v>
+        <v>275.31</v>
       </c>
       <c r="D45" s="1">
-        <v>284.14999999999998</v>
+        <v>288.85000000000002</v>
       </c>
       <c r="E45" s="1">
-        <v>275.24</v>
+        <v>273.08999999999997</v>
       </c>
       <c r="F45" s="1">
-        <v>275.27</v>
+        <v>287.64999999999998</v>
       </c>
       <c r="G45" s="1">
-        <v>286.89999999999998</v>
+        <v>279.93</v>
       </c>
       <c r="H45" s="1">
-        <v>278.63</v>
+        <v>270.63</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2332,28 +2340,28 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>43605</v>
+        <v>43613</v>
       </c>
       <c r="B46" s="2">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="C46" s="1">
-        <v>284.06</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="D46" s="1">
-        <v>286.93</v>
+        <v>284.14999999999998</v>
       </c>
       <c r="E46" s="1">
-        <v>280.57</v>
+        <v>275.24</v>
       </c>
       <c r="F46" s="1">
-        <v>282.77999999999997</v>
+        <v>275.27</v>
       </c>
       <c r="G46" s="1">
-        <v>290</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="H46" s="1">
-        <v>281.63</v>
+        <v>278.63</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2377,28 +2385,28 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>43598</v>
+        <v>43605</v>
       </c>
       <c r="B47" s="2">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="C47" s="1">
-        <v>282.42</v>
+        <v>284.06</v>
       </c>
       <c r="D47" s="1">
-        <v>289.20999999999998</v>
+        <v>286.93</v>
       </c>
       <c r="E47" s="1">
-        <v>279.93</v>
+        <v>280.57</v>
       </c>
       <c r="F47" s="1">
-        <v>285.83999999999997</v>
+        <v>282.77999999999997</v>
       </c>
       <c r="G47" s="1">
-        <v>292.32</v>
+        <v>290</v>
       </c>
       <c r="H47" s="1">
-        <v>283.8</v>
+        <v>281.63</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2422,28 +2430,28 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>43591</v>
+        <v>43598</v>
       </c>
       <c r="B48" s="2">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="C48" s="1">
-        <v>289.25</v>
+        <v>282.42</v>
       </c>
       <c r="D48" s="1">
-        <v>293.31</v>
+        <v>289.20999999999998</v>
       </c>
       <c r="E48" s="1">
-        <v>282.3</v>
+        <v>279.93</v>
       </c>
       <c r="F48" s="1">
-        <v>288.10000000000002</v>
+        <v>285.83999999999997</v>
       </c>
       <c r="G48" s="1">
-        <v>297.17</v>
+        <v>292.32</v>
       </c>
       <c r="H48" s="1">
-        <v>290.87</v>
+        <v>283.8</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2467,28 +2475,28 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B49" s="2">
-        <v>43588</v>
+        <v>43595</v>
       </c>
       <c r="C49" s="1">
-        <v>293.51</v>
+        <v>289.25</v>
       </c>
       <c r="D49" s="1">
-        <v>294.95</v>
+        <v>293.31</v>
       </c>
       <c r="E49" s="1">
-        <v>289.52</v>
+        <v>282.3</v>
       </c>
       <c r="F49" s="1">
-        <v>294.02999999999997</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="G49" s="1">
-        <v>296.5</v>
+        <v>297.17</v>
       </c>
       <c r="H49" s="1">
-        <v>290.25</v>
+        <v>290.87</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2512,28 +2520,28 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>43577</v>
+        <v>43584</v>
       </c>
       <c r="B50" s="2">
-        <v>43581</v>
+        <v>43588</v>
       </c>
       <c r="C50" s="1">
-        <v>289.17</v>
+        <v>293.51</v>
       </c>
       <c r="D50" s="1">
-        <v>293.49</v>
+        <v>294.95</v>
       </c>
       <c r="E50" s="1">
-        <v>289.07</v>
+        <v>289.52</v>
       </c>
       <c r="F50" s="1">
-        <v>293.41000000000003</v>
+        <v>294.02999999999997</v>
       </c>
       <c r="G50" s="1">
-        <v>293.19</v>
+        <v>296.5</v>
       </c>
       <c r="H50" s="1">
-        <v>286.85000000000002</v>
+        <v>290.25</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2557,28 +2565,28 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>43570</v>
+        <v>43577</v>
       </c>
       <c r="B51" s="2">
-        <v>43574</v>
+        <v>43581</v>
       </c>
       <c r="C51" s="1">
-        <v>290.24</v>
+        <v>289.17</v>
       </c>
       <c r="D51" s="1">
-        <v>291.43</v>
+        <v>293.49</v>
       </c>
       <c r="E51" s="1">
-        <v>288.66000000000003</v>
+        <v>289.07</v>
       </c>
       <c r="F51" s="1">
-        <v>290.02</v>
+        <v>293.41000000000003</v>
       </c>
       <c r="G51" s="1">
         <v>293.19</v>
       </c>
       <c r="H51" s="1">
-        <v>287.14</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2602,28 +2610,28 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>43563</v>
+        <v>43570</v>
       </c>
       <c r="B52" s="2">
-        <v>43567</v>
+        <v>43574</v>
       </c>
       <c r="C52" s="1">
-        <v>288.10000000000002</v>
+        <v>290.24</v>
       </c>
       <c r="D52" s="1">
-        <v>290.47000000000003</v>
+        <v>291.43</v>
       </c>
       <c r="E52" s="1">
-        <v>286.7</v>
+        <v>288.66000000000003</v>
       </c>
       <c r="F52" s="1">
-        <v>290.16000000000003</v>
+        <v>290.02</v>
       </c>
       <c r="G52" s="1">
-        <v>291.89999999999998</v>
+        <v>293.19</v>
       </c>
       <c r="H52" s="1">
-        <v>285.2</v>
+        <v>287.14</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2647,28 +2655,28 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>43556</v>
+        <v>43563</v>
       </c>
       <c r="B53" s="2">
-        <v>43560</v>
+        <v>43567</v>
       </c>
       <c r="C53" s="1">
-        <v>284.7</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="D53" s="1">
-        <v>288.63</v>
+        <v>290.47000000000003</v>
       </c>
       <c r="E53" s="1">
-        <v>284.39999999999998</v>
+        <v>286.7</v>
       </c>
       <c r="F53" s="1">
-        <v>288.57</v>
+        <v>290.16000000000003</v>
       </c>
       <c r="G53" s="1">
-        <v>286.06</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="H53" s="1">
-        <v>278.93</v>
+        <v>285.2</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2692,28 +2700,28 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>43549</v>
+        <v>43556</v>
       </c>
       <c r="B54" s="2">
-        <v>43553</v>
+        <v>43560</v>
       </c>
       <c r="C54" s="1">
-        <v>278.87</v>
+        <v>284.7</v>
       </c>
       <c r="D54" s="1">
-        <v>282.83999999999997</v>
+        <v>288.63</v>
       </c>
       <c r="E54" s="1">
-        <v>277.64</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="F54" s="1">
-        <v>282.48</v>
+        <v>288.57</v>
       </c>
       <c r="G54" s="1">
-        <v>283.33</v>
+        <v>286.06</v>
       </c>
       <c r="H54" s="1">
-        <v>275.11</v>
+        <v>278.93</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2737,28 +2745,28 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="B55" s="2">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="C55" s="1">
-        <v>281.55</v>
+        <v>278.87</v>
       </c>
       <c r="D55" s="1">
-        <v>285.18</v>
+        <v>282.83999999999997</v>
       </c>
       <c r="E55" s="1">
-        <v>279.18</v>
+        <v>277.64</v>
       </c>
       <c r="F55" s="1">
-        <v>279.25</v>
+        <v>282.48</v>
       </c>
       <c r="G55" s="1">
-        <v>284.55</v>
+        <v>283.33</v>
       </c>
       <c r="H55" s="1">
-        <v>278.14</v>
+        <v>275.11</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2782,28 +2790,28 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B56" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="C56" s="1">
-        <v>275.26</v>
+        <v>281.55</v>
       </c>
       <c r="D56" s="1">
-        <v>282.38</v>
+        <v>285.18</v>
       </c>
       <c r="E56" s="1">
-        <v>275.23</v>
+        <v>279.18</v>
       </c>
       <c r="F56" s="1">
-        <v>281.31</v>
+        <v>279.25</v>
       </c>
       <c r="G56" s="1">
-        <v>278.36</v>
+        <v>284.55</v>
       </c>
       <c r="H56" s="1">
-        <v>270.58</v>
+        <v>278.14</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2827,28 +2835,28 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>43528</v>
+        <v>43535</v>
       </c>
       <c r="B57" s="2">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="C57" s="1">
-        <v>281.60000000000002</v>
+        <v>275.26</v>
       </c>
       <c r="D57" s="1">
-        <v>281.87</v>
+        <v>282.38</v>
       </c>
       <c r="E57" s="1">
-        <v>272.42</v>
+        <v>275.23</v>
       </c>
       <c r="F57" s="1">
-        <v>274.45999999999998</v>
+        <v>281.31</v>
       </c>
       <c r="G57" s="1">
-        <v>283.89999999999998</v>
+        <v>278.36</v>
       </c>
       <c r="H57" s="1">
-        <v>276.92</v>
+        <v>270.58</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2872,28 +2880,28 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>43521</v>
+        <v>43528</v>
       </c>
       <c r="B58" s="2">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="C58" s="1">
-        <v>280.73</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="D58" s="1">
-        <v>281.31</v>
+        <v>281.87</v>
       </c>
       <c r="E58" s="1">
-        <v>277.48</v>
+        <v>272.42</v>
       </c>
       <c r="F58" s="1">
-        <v>280.42</v>
+        <v>274.45999999999998</v>
       </c>
       <c r="G58" s="1">
-        <v>282.52</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="H58" s="1">
-        <v>275.62</v>
+        <v>276.92</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2917,28 +2925,28 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>43515</v>
+        <v>43521</v>
       </c>
       <c r="B59" s="2">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="C59" s="1">
-        <v>276.48</v>
+        <v>280.73</v>
       </c>
       <c r="D59" s="1">
-        <v>279.36</v>
+        <v>281.31</v>
       </c>
       <c r="E59" s="1">
-        <v>276.35000000000002</v>
+        <v>277.48</v>
       </c>
       <c r="F59" s="1">
-        <v>279.14</v>
+        <v>280.42</v>
       </c>
       <c r="G59" s="1">
-        <v>281.24</v>
+        <v>282.52</v>
       </c>
       <c r="H59" s="1">
-        <v>273.45999999999998</v>
+        <v>275.62</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2962,28 +2970,28 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="B60" s="2">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="C60" s="1">
-        <v>271.2</v>
+        <v>276.48</v>
       </c>
       <c r="D60" s="1">
-        <v>277.41000000000003</v>
+        <v>279.36</v>
       </c>
       <c r="E60" s="1">
-        <v>270.02999999999997</v>
+        <v>276.35000000000002</v>
       </c>
       <c r="F60" s="1">
-        <v>277.37</v>
+        <v>279.14</v>
       </c>
       <c r="G60" s="1">
-        <v>274.39</v>
+        <v>281.24</v>
       </c>
       <c r="H60" s="1">
-        <v>266.54000000000002</v>
+        <v>273.45999999999998</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3007,28 +3015,28 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>43500</v>
+        <v>43507</v>
       </c>
       <c r="B61" s="2">
-        <v>43504</v>
+        <v>43511</v>
       </c>
       <c r="C61" s="1">
-        <v>270.11</v>
+        <v>271.2</v>
       </c>
       <c r="D61" s="1">
-        <v>273.44</v>
+        <v>277.41000000000003</v>
       </c>
       <c r="E61" s="1">
-        <v>267.83</v>
+        <v>270.02999999999997</v>
       </c>
       <c r="F61" s="1">
-        <v>270.47000000000003</v>
+        <v>277.37</v>
       </c>
       <c r="G61" s="1">
-        <v>273.17</v>
+        <v>274.39</v>
       </c>
       <c r="H61" s="1">
-        <v>266.98</v>
+        <v>266.54000000000002</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3052,28 +3060,28 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>43493</v>
+        <v>43500</v>
       </c>
       <c r="B62" s="2">
-        <v>43497</v>
+        <v>43504</v>
       </c>
       <c r="C62" s="1">
-        <v>263.39</v>
+        <v>270.11</v>
       </c>
       <c r="D62" s="1">
-        <v>271.2</v>
+        <v>273.44</v>
       </c>
       <c r="E62" s="1">
-        <v>261.79000000000002</v>
+        <v>267.83</v>
       </c>
       <c r="F62" s="1">
-        <v>270.06</v>
+        <v>270.47000000000003</v>
       </c>
       <c r="G62" s="1">
-        <v>269.27999999999997</v>
+        <v>273.17</v>
       </c>
       <c r="H62" s="1">
-        <v>262.08</v>
+        <v>266.98</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3097,28 +3105,28 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>43487</v>
+        <v>43493</v>
       </c>
       <c r="B63" s="2">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="C63" s="1">
-        <v>264.82</v>
+        <v>263.39</v>
       </c>
       <c r="D63" s="1">
-        <v>266.7</v>
+        <v>271.2</v>
       </c>
       <c r="E63" s="1">
-        <v>260.66000000000003</v>
+        <v>261.79000000000002</v>
       </c>
       <c r="F63" s="1">
-        <v>265.77999999999997</v>
+        <v>270.06</v>
       </c>
       <c r="G63" s="1">
-        <v>270.58</v>
+        <v>269.27999999999997</v>
       </c>
       <c r="H63" s="1">
-        <v>262.18</v>
+        <v>262.08</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3142,28 +3150,28 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>43479</v>
+        <v>43487</v>
       </c>
       <c r="B64" s="2">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="C64" s="1">
-        <v>256.86</v>
+        <v>264.82</v>
       </c>
       <c r="D64" s="1">
-        <v>266.98</v>
+        <v>266.7</v>
       </c>
       <c r="E64" s="1">
-        <v>256.41000000000003</v>
+        <v>260.66000000000003</v>
       </c>
       <c r="F64" s="1">
-        <v>266.45999999999998</v>
+        <v>265.77999999999997</v>
       </c>
       <c r="G64" s="1">
-        <v>263.19</v>
+        <v>270.58</v>
       </c>
       <c r="H64" s="1">
-        <v>254.6</v>
+        <v>262.18</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3187,28 +3195,28 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>43472</v>
+        <v>43479</v>
       </c>
       <c r="B65" s="2">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="C65" s="1">
-        <v>252.69</v>
+        <v>256.86</v>
       </c>
       <c r="D65" s="1">
-        <v>259.16000000000003</v>
+        <v>266.98</v>
       </c>
       <c r="E65" s="1">
-        <v>251.69</v>
+        <v>256.41000000000003</v>
       </c>
       <c r="F65" s="1">
-        <v>258.98</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="G65" s="1">
-        <v>256.42</v>
+        <v>263.19</v>
       </c>
       <c r="H65" s="1">
-        <v>248.22</v>
+        <v>254.6</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3232,28 +3240,28 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>43465</v>
+        <v>43472</v>
       </c>
       <c r="B66" s="2">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="C66" s="1">
-        <v>249.56</v>
+        <v>252.69</v>
       </c>
       <c r="D66" s="1">
-        <v>253.11</v>
+        <v>259.16000000000003</v>
       </c>
       <c r="E66" s="1">
-        <v>243.67</v>
+        <v>251.69</v>
       </c>
       <c r="F66" s="1">
-        <v>252.39</v>
+        <v>258.98</v>
       </c>
       <c r="G66" s="1">
-        <v>253.59</v>
+        <v>256.42</v>
       </c>
       <c r="H66" s="1">
-        <v>241.95</v>
+        <v>248.22</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3277,28 +3285,28 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>43458</v>
+        <v>43465</v>
       </c>
       <c r="B67" s="2">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="C67" s="1">
-        <v>239.04</v>
+        <v>249.56</v>
       </c>
       <c r="D67" s="1">
-        <v>251.4</v>
+        <v>253.11</v>
       </c>
       <c r="E67" s="1">
-        <v>233.76</v>
+        <v>243.67</v>
       </c>
       <c r="F67" s="1">
-        <v>247.75</v>
+        <v>252.39</v>
       </c>
       <c r="G67" s="1">
-        <v>247.01</v>
+        <v>253.59</v>
       </c>
       <c r="H67" s="1">
-        <v>234.37</v>
+        <v>241.95</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3322,28 +3330,28 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>43451</v>
+        <v>43458</v>
       </c>
       <c r="B68" s="2">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="C68" s="1">
-        <v>259.39999999999998</v>
+        <v>239.04</v>
       </c>
       <c r="D68" s="1">
-        <v>260.64999999999998</v>
+        <v>251.4</v>
       </c>
       <c r="E68" s="1">
-        <v>239.98</v>
+        <v>233.76</v>
       </c>
       <c r="F68" s="1">
-        <v>240.7</v>
+        <v>247.75</v>
       </c>
       <c r="G68" s="1">
-        <v>266.63</v>
+        <v>247.01</v>
       </c>
       <c r="H68" s="1">
-        <v>254.29</v>
+        <v>234.37</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3365,6 +3373,51 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43455</v>
+      </c>
+      <c r="C69" s="1">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="D69" s="1">
+        <v>260.64999999999998</v>
+      </c>
+      <c r="E69" s="1">
+        <v>239.98</v>
+      </c>
+      <c r="F69" s="1">
+        <v>240.7</v>
+      </c>
+      <c r="G69" s="1">
+        <v>266.63</v>
+      </c>
+      <c r="H69" s="1">
+        <v>254.29</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExpectedMove/expected_moves.xlsx
+++ b/ExpectedMove/expected_moves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dallincoons/Projects/expected_move/ExpectedMove/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83442EC2-C3D2-DD47-8FFD-88CD09F3CA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850DBAA-68A0-8941-AD09-2E21DE5BEFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42500" yWindow="920" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -360,28 +360,28 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>43920</v>
+        <v>43927</v>
       </c>
       <c r="B2" s="2">
-        <v>43924</v>
+        <v>43930</v>
       </c>
       <c r="C2" s="1">
-        <v>255.7</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>263.33</v>
+        <v>281.2</v>
       </c>
       <c r="E2" s="1">
-        <v>247.6</v>
+        <v>248.17</v>
       </c>
       <c r="F2" s="1">
-        <v>248.89</v>
+        <v>278.2</v>
       </c>
       <c r="G2" s="1">
-        <v>274.065</v>
+        <v>259.94099999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>232.77500000000001</v>
+        <v>236.43899999999999</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -405,28 +405,28 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>43913</v>
+        <v>43920</v>
       </c>
       <c r="B3" s="2">
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="C3" s="1">
-        <v>228.19</v>
+        <v>255.7</v>
       </c>
       <c r="D3" s="1">
-        <v>262.8</v>
+        <v>263.33</v>
       </c>
       <c r="E3" s="1">
-        <v>218.26</v>
+        <v>247.6</v>
       </c>
       <c r="F3" s="1">
-        <v>253.42</v>
+        <v>248.89</v>
       </c>
       <c r="G3" s="1">
-        <v>251.554</v>
+        <v>274.065</v>
       </c>
       <c r="H3" s="1">
-        <v>206.04599999999999</v>
+        <v>232.77500000000001</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -450,28 +450,28 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="B4" s="2">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="C4" s="1">
-        <v>241.18</v>
+        <v>228.19</v>
       </c>
       <c r="D4" s="1">
-        <v>256.89999999999998</v>
+        <v>262.8</v>
       </c>
       <c r="E4" s="1">
-        <v>228.02</v>
+        <v>218.26</v>
       </c>
       <c r="F4" s="1">
-        <v>228.8</v>
+        <v>253.42</v>
       </c>
       <c r="G4" s="1">
-        <v>292.32</v>
+        <v>251.554</v>
       </c>
       <c r="H4" s="1">
-        <v>246.32</v>
+        <v>206.04599999999999</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -495,28 +495,28 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="B5" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="C5" s="1">
-        <v>275.3</v>
+        <v>241.18</v>
       </c>
       <c r="D5" s="1">
-        <v>288.52</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>247.68</v>
+        <v>228.02</v>
       </c>
       <c r="F5" s="1">
-        <v>248.11</v>
+        <v>228.8</v>
       </c>
       <c r="G5" s="1">
-        <v>313.53199999999998</v>
+        <v>292.32</v>
       </c>
       <c r="H5" s="1">
-        <v>281.38799999999998</v>
+        <v>246.32</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -540,28 +540,28 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="B6" s="2">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="C6" s="1">
-        <v>298.20999999999998</v>
+        <v>275.3</v>
       </c>
       <c r="D6" s="1">
-        <v>313.83999999999997</v>
+        <v>288.52</v>
       </c>
       <c r="E6" s="1">
-        <v>290.23</v>
+        <v>247.68</v>
       </c>
       <c r="F6" s="1">
-        <v>297.45999999999998</v>
+        <v>248.11</v>
       </c>
       <c r="G6" s="1">
-        <v>314.45999999999998</v>
+        <v>313.53199999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>278.06</v>
+        <v>281.38799999999998</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -585,28 +585,28 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>43885</v>
+        <v>43892</v>
       </c>
       <c r="B7" s="2">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="C7" s="1">
-        <v>323.14</v>
+        <v>298.20999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>337.06</v>
+        <v>313.83999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>285.54000000000002</v>
+        <v>290.23</v>
       </c>
       <c r="F7" s="1">
-        <v>296.26</v>
+        <v>297.45999999999998</v>
       </c>
       <c r="G7" s="1">
-        <v>338.75</v>
+        <v>314.45999999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>328.24</v>
+        <v>278.06</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -630,28 +630,28 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>43879</v>
+        <v>43885</v>
       </c>
       <c r="B8" s="2">
-        <v>43882</v>
+        <v>43889</v>
       </c>
       <c r="C8" s="1">
-        <v>336.51</v>
+        <v>323.14</v>
       </c>
       <c r="D8" s="1">
-        <v>339.08</v>
+        <v>337.06</v>
       </c>
       <c r="E8" s="1">
-        <v>332.58</v>
+        <v>285.54000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>333.48</v>
+        <v>296.26</v>
       </c>
       <c r="G8" s="1">
-        <v>341.637</v>
+        <v>338.75</v>
       </c>
       <c r="H8" s="1">
-        <v>333.56299999999999</v>
+        <v>328.24</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -675,28 +675,28 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>43871</v>
+        <v>43879</v>
       </c>
       <c r="B9" s="2">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="C9" s="1">
-        <v>331.23</v>
+        <v>336.51</v>
       </c>
       <c r="D9" s="1">
-        <v>338.12</v>
+        <v>339.08</v>
       </c>
       <c r="E9" s="1">
-        <v>331.19</v>
+        <v>332.58</v>
       </c>
       <c r="F9" s="1">
-        <v>337.6</v>
+        <v>333.48</v>
       </c>
       <c r="G9" s="1">
-        <v>337.32600000000002</v>
+        <v>341.637</v>
       </c>
       <c r="H9" s="1">
-        <v>327.07799999999997</v>
+        <v>333.56299999999999</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -720,28 +720,28 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>43864</v>
+        <v>43871</v>
       </c>
       <c r="B10" s="2">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="C10" s="1">
-        <v>323.35000000000002</v>
+        <v>331.23</v>
       </c>
       <c r="D10" s="1">
-        <v>334.49</v>
+        <v>338.12</v>
       </c>
       <c r="E10" s="1">
-        <v>323.22000000000003</v>
+        <v>331.19</v>
       </c>
       <c r="F10" s="1">
-        <v>332.2</v>
+        <v>337.6</v>
       </c>
       <c r="G10" s="1">
-        <v>327.82</v>
+        <v>337.32600000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>315.64</v>
+        <v>327.07799999999997</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -765,28 +765,28 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>43857</v>
+        <v>43864</v>
       </c>
       <c r="B11" s="2">
-        <v>43861</v>
+        <v>43868</v>
       </c>
       <c r="C11" s="1">
-        <v>323.02999999999997</v>
+        <v>323.35000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>328.63</v>
+        <v>334.49</v>
       </c>
       <c r="E11" s="1">
-        <v>320.73</v>
+        <v>323.22000000000003</v>
       </c>
       <c r="F11" s="1">
-        <v>321.73</v>
+        <v>332.2</v>
       </c>
       <c r="G11" s="1">
-        <v>334.03699999999998</v>
+        <v>327.82</v>
       </c>
       <c r="H11" s="1">
-        <v>323.50400000000002</v>
+        <v>315.64</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -810,28 +810,28 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>43851</v>
+        <v>43857</v>
       </c>
       <c r="B12" s="2">
-        <v>43854</v>
+        <v>43861</v>
       </c>
       <c r="C12" s="1">
-        <v>332.44</v>
+        <v>323.02999999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>332.53</v>
+        <v>328.63</v>
       </c>
       <c r="E12" s="1">
-        <v>327.36</v>
+        <v>320.73</v>
       </c>
       <c r="F12" s="1">
-        <v>328.77</v>
+        <v>321.73</v>
       </c>
       <c r="G12" s="1">
-        <v>334.07</v>
+        <v>334.03699999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>329.83</v>
+        <v>323.50400000000002</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -855,28 +855,28 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>43843</v>
+        <v>43851</v>
       </c>
       <c r="B13" s="2">
-        <v>43847</v>
+        <v>43854</v>
       </c>
       <c r="C13" s="1">
-        <v>326.39</v>
+        <v>332.44</v>
       </c>
       <c r="D13" s="1">
-        <v>332.18</v>
+        <v>332.53</v>
       </c>
       <c r="E13" s="1">
-        <v>325.92</v>
+        <v>327.36</v>
       </c>
       <c r="F13" s="1">
-        <v>331.95</v>
+        <v>328.77</v>
       </c>
       <c r="G13" s="1">
-        <v>329.14</v>
+        <v>334.07</v>
       </c>
       <c r="H13" s="1">
-        <v>322.27999999999997</v>
+        <v>329.83</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -900,28 +900,28 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>43836</v>
+        <v>43843</v>
       </c>
       <c r="B14" s="2">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="C14" s="1">
-        <v>320.49</v>
+        <v>326.39</v>
       </c>
       <c r="D14" s="1">
-        <v>327.45999999999998</v>
+        <v>332.18</v>
       </c>
       <c r="E14" s="1">
-        <v>325.70999999999998</v>
+        <v>325.92</v>
       </c>
       <c r="F14" s="1">
-        <v>325.70999999999998</v>
+        <v>331.95</v>
       </c>
       <c r="G14" s="1">
-        <v>325.54000000000002</v>
+        <v>329.14</v>
       </c>
       <c r="H14" s="1">
-        <v>319.27999999999997</v>
+        <v>322.27999999999997</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -945,28 +945,28 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>43829</v>
+        <v>43836</v>
       </c>
       <c r="B15" s="2">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="C15" s="1">
-        <v>322.95</v>
+        <v>320.49</v>
       </c>
       <c r="D15" s="1">
-        <v>324.89</v>
+        <v>327.45999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>320.14999999999998</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="F15" s="1">
-        <v>322.41000000000003</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="G15" s="1">
-        <v>326.23</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>319.5</v>
+        <v>319.27999999999997</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -990,28 +990,28 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>43822</v>
+        <v>43829</v>
       </c>
       <c r="B16" s="2">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="C16" s="1">
-        <v>321.58999999999997</v>
+        <v>322.95</v>
       </c>
       <c r="D16" s="1">
-        <v>323.8</v>
+        <v>324.89</v>
       </c>
       <c r="E16" s="1">
-        <v>320.89999999999998</v>
+        <v>320.14999999999998</v>
       </c>
       <c r="F16" s="1">
-        <v>322.86</v>
+        <v>322.41000000000003</v>
       </c>
       <c r="G16" s="1">
-        <v>324.20999999999998</v>
+        <v>326.23</v>
       </c>
       <c r="H16" s="1">
-        <v>317.23</v>
+        <v>319.5</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1035,28 +1035,28 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>43815</v>
+        <v>43822</v>
       </c>
       <c r="B17" s="2">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="C17" s="1">
-        <v>319.22000000000003</v>
+        <v>321.58999999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>321.97000000000003</v>
+        <v>323.8</v>
       </c>
       <c r="E17" s="1">
-        <v>317.25</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>320.73</v>
+        <v>322.86</v>
       </c>
       <c r="G17" s="1">
-        <v>320.94</v>
+        <v>324.20999999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>313.70999999999998</v>
+        <v>317.23</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1080,28 +1080,28 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="B18" s="2">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="C18" s="1">
-        <v>314.44</v>
+        <v>319.22000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>318.67</v>
+        <v>321.97000000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>312.81</v>
+        <v>317.25</v>
       </c>
       <c r="F18" s="1">
-        <v>317.32</v>
+        <v>320.73</v>
       </c>
       <c r="G18" s="1">
-        <v>318.19</v>
+        <v>320.94</v>
       </c>
       <c r="H18" s="1">
-        <v>311.56</v>
+        <v>313.70999999999998</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1125,28 +1125,28 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="B19" s="2">
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="C19" s="1">
-        <v>314.58999999999997</v>
+        <v>314.44</v>
       </c>
       <c r="D19" s="1">
-        <v>315.31</v>
+        <v>318.67</v>
       </c>
       <c r="E19" s="1">
-        <v>307.13</v>
+        <v>312.81</v>
       </c>
       <c r="F19" s="1">
-        <v>314.87</v>
+        <v>317.32</v>
       </c>
       <c r="G19" s="1">
-        <v>317.69</v>
+        <v>318.19</v>
       </c>
       <c r="H19" s="1">
-        <v>310.92</v>
+        <v>311.56</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1170,28 +1170,28 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="B20" s="2">
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="C20" s="1">
-        <v>311.98</v>
+        <v>314.58999999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>315.48</v>
+        <v>315.31</v>
       </c>
       <c r="E20" s="1">
-        <v>311.98</v>
+        <v>307.13</v>
       </c>
       <c r="F20" s="1">
-        <v>314.31</v>
+        <v>314.87</v>
       </c>
       <c r="G20" s="1">
-        <v>314.56</v>
+        <v>317.69</v>
       </c>
       <c r="H20" s="1">
-        <v>307.39</v>
+        <v>310.92</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1215,28 +1215,28 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="B21" s="2">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="C21" s="1">
-        <v>311.52999999999997</v>
+        <v>311.98</v>
       </c>
       <c r="D21" s="1">
-        <v>312.69</v>
+        <v>315.48</v>
       </c>
       <c r="E21" s="1">
-        <v>309.06</v>
+        <v>311.98</v>
       </c>
       <c r="F21" s="1">
-        <v>310.95999999999998</v>
+        <v>314.31</v>
       </c>
       <c r="G21" s="1">
-        <v>315.3</v>
+        <v>314.56</v>
       </c>
       <c r="H21" s="1">
-        <v>308.25</v>
+        <v>307.39</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1260,28 +1260,28 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="B22" s="2">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="C22" s="1">
-        <v>307.42</v>
+        <v>311.52999999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>311.83999999999997</v>
+        <v>312.69</v>
       </c>
       <c r="E22" s="1">
-        <v>307.27</v>
+        <v>309.06</v>
       </c>
       <c r="F22" s="1">
-        <v>311.79000000000002</v>
+        <v>310.95999999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>312.52</v>
+        <v>315.3</v>
       </c>
       <c r="H22" s="1">
-        <v>305.36</v>
+        <v>308.25</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1305,28 +1305,28 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="B23" s="2">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="C23" s="1">
-        <v>307.85000000000002</v>
+        <v>307.42</v>
       </c>
       <c r="D23" s="1">
-        <v>309.64999999999998</v>
+        <v>311.83999999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>306.06</v>
+        <v>307.27</v>
       </c>
       <c r="F23" s="1">
-        <v>308.94</v>
+        <v>311.79000000000002</v>
       </c>
       <c r="G23" s="1">
-        <v>309.85000000000002</v>
+        <v>312.52</v>
       </c>
       <c r="H23" s="1">
-        <v>302.44</v>
+        <v>305.36</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1350,28 +1350,28 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>43766</v>
+        <v>43773</v>
       </c>
       <c r="B24" s="2">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="C24" s="1">
-        <v>302.94</v>
+        <v>307.85000000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>306.19</v>
+        <v>309.64999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>301.73</v>
+        <v>306.06</v>
       </c>
       <c r="F24" s="1">
-        <v>306.14</v>
+        <v>308.94</v>
       </c>
       <c r="G24" s="1">
-        <v>305.2</v>
+        <v>309.85000000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>298.01</v>
+        <v>302.44</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>43759</v>
+        <v>43766</v>
       </c>
       <c r="B25" s="2">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="C25" s="1">
-        <v>299.42</v>
+        <v>302.94</v>
       </c>
       <c r="D25" s="1">
-        <v>302.2</v>
+        <v>306.19</v>
       </c>
       <c r="E25" s="1">
-        <v>298.5</v>
+        <v>301.73</v>
       </c>
       <c r="F25" s="1">
-        <v>301.60000000000002</v>
+        <v>306.14</v>
       </c>
       <c r="G25" s="1">
-        <v>301.77999999999997</v>
+        <v>305.2</v>
       </c>
       <c r="H25" s="1">
-        <v>294.14999999999998</v>
+        <v>298.01</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1440,28 +1440,28 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>43752</v>
+        <v>43759</v>
       </c>
       <c r="B26" s="2">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="C26" s="1">
-        <v>295.93</v>
+        <v>299.42</v>
       </c>
       <c r="D26" s="1">
-        <v>300.24</v>
+        <v>302.2</v>
       </c>
       <c r="E26" s="1">
-        <v>295.57</v>
+        <v>298.5</v>
       </c>
       <c r="F26" s="1">
-        <v>297.97000000000003</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="G26" s="1">
-        <v>300.29000000000002</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>292.26</v>
+        <v>294.14999999999998</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1485,28 +1485,28 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>43745</v>
+        <v>43752</v>
       </c>
       <c r="B27" s="2">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="C27" s="1">
-        <v>293.47000000000003</v>
+        <v>295.93</v>
       </c>
       <c r="D27" s="1">
-        <v>298.74</v>
+        <v>300.24</v>
       </c>
       <c r="E27" s="1">
-        <v>288.49</v>
+        <v>295.57</v>
       </c>
       <c r="F27" s="1">
-        <v>296.27999999999997</v>
+        <v>297.97000000000003</v>
       </c>
       <c r="G27" s="1">
-        <v>298.93</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="H27" s="1">
-        <v>289.74</v>
+        <v>292.26</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1530,28 +1530,28 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>43738</v>
+        <v>43745</v>
       </c>
       <c r="B28" s="2">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="C28" s="1">
-        <v>295.97000000000003</v>
+        <v>293.47000000000003</v>
       </c>
       <c r="D28" s="1">
-        <v>298.45999999999998</v>
+        <v>298.74</v>
       </c>
       <c r="E28" s="1">
-        <v>284.82</v>
+        <v>288.49</v>
       </c>
       <c r="F28" s="1">
-        <v>294.35000000000002</v>
+        <v>296.27999999999997</v>
       </c>
       <c r="G28" s="1">
-        <v>300.01</v>
+        <v>298.93</v>
       </c>
       <c r="H28" s="1">
-        <v>290.77999999999997</v>
+        <v>289.74</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1575,28 +1575,28 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="B29" s="2">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="C29" s="1">
-        <v>297.55</v>
+        <v>295.97000000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>299.83999999999997</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="E29" s="1">
-        <v>293.69</v>
+        <v>284.82</v>
       </c>
       <c r="F29" s="1">
-        <v>295.39999999999998</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="G29" s="1">
-        <v>302.43</v>
+        <v>300.01</v>
       </c>
       <c r="H29" s="1">
-        <v>294.13</v>
+        <v>290.77999999999997</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1620,28 +1620,28 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>43724</v>
+        <v>43731</v>
       </c>
       <c r="B30" s="2">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="C30" s="1">
+        <v>297.55</v>
+      </c>
+      <c r="D30" s="1">
         <v>299.83999999999997</v>
       </c>
-      <c r="D30" s="1">
-        <v>302.63</v>
-      </c>
       <c r="E30" s="1">
-        <v>297.41000000000003</v>
+        <v>293.69</v>
       </c>
       <c r="F30" s="1">
-        <v>298.27999999999997</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>304.77999999999997</v>
+        <v>302.43</v>
       </c>
       <c r="H30" s="1">
-        <v>297.39999999999998</v>
+        <v>294.13</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1665,28 +1665,28 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>43717</v>
+        <v>43724</v>
       </c>
       <c r="B31" s="2">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="C31" s="1">
-        <v>299.14</v>
+        <v>299.83999999999997</v>
       </c>
       <c r="D31" s="1">
-        <v>302.45999999999998</v>
+        <v>302.63</v>
       </c>
       <c r="E31" s="1">
-        <v>295.97000000000003</v>
+        <v>297.41000000000003</v>
       </c>
       <c r="F31" s="1">
-        <v>301.08999999999997</v>
+        <v>298.27999999999997</v>
       </c>
       <c r="G31" s="1">
-        <v>302.2</v>
+        <v>304.77999999999997</v>
       </c>
       <c r="H31" s="1">
-        <v>293.89999999999998</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1710,28 +1710,28 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>43711</v>
+        <v>43717</v>
       </c>
       <c r="B32" s="2">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="C32" s="1">
-        <v>290.57</v>
+        <v>299.14</v>
       </c>
       <c r="D32" s="1">
-        <v>298.83</v>
+        <v>302.45999999999998</v>
       </c>
       <c r="E32" s="1">
-        <v>289.27</v>
+        <v>295.97000000000003</v>
       </c>
       <c r="F32" s="1">
-        <v>298.05</v>
+        <v>301.08999999999997</v>
       </c>
       <c r="G32" s="1">
-        <v>297.49</v>
+        <v>302.2</v>
       </c>
       <c r="H32" s="1">
-        <v>287.39</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1755,28 +1755,28 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>43703</v>
+        <v>43711</v>
       </c>
       <c r="B33" s="2">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="C33" s="1">
-        <v>287.27</v>
+        <v>290.57</v>
       </c>
       <c r="D33" s="1">
-        <v>294.24</v>
+        <v>298.83</v>
       </c>
       <c r="E33" s="1">
-        <v>285.25</v>
+        <v>289.27</v>
       </c>
       <c r="F33" s="1">
-        <v>292.45</v>
+        <v>298.05</v>
       </c>
       <c r="G33" s="1">
-        <v>290.10000000000002</v>
+        <v>297.49</v>
       </c>
       <c r="H33" s="1">
-        <v>279.60000000000002</v>
+        <v>287.39</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1800,28 +1800,28 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>43696</v>
+        <v>43703</v>
       </c>
       <c r="B34" s="2">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="C34" s="1">
-        <v>292.19</v>
+        <v>287.27</v>
       </c>
       <c r="D34" s="1">
-        <v>293.93</v>
+        <v>294.24</v>
       </c>
       <c r="E34" s="1">
-        <v>283.47000000000003</v>
+        <v>285.25</v>
       </c>
       <c r="F34" s="1">
-        <v>284.85000000000002</v>
+        <v>292.45</v>
       </c>
       <c r="G34" s="1">
-        <v>293.75</v>
+        <v>290.10000000000002</v>
       </c>
       <c r="H34" s="1">
-        <v>283.94</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1845,28 +1845,28 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>43689</v>
+        <v>43696</v>
       </c>
       <c r="B35" s="2">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="C35" s="1">
-        <v>289.95999999999998</v>
+        <v>292.19</v>
       </c>
       <c r="D35" s="1">
-        <v>294.14999999999998</v>
+        <v>293.93</v>
       </c>
       <c r="E35" s="1">
-        <v>282.39</v>
+        <v>283.47000000000003</v>
       </c>
       <c r="F35" s="1">
-        <v>288.85000000000002</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="G35" s="1">
-        <v>296.31</v>
+        <v>293.75</v>
       </c>
       <c r="H35" s="1">
-        <v>286.95</v>
+        <v>283.94</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1890,28 +1890,28 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>43682</v>
+        <v>43689</v>
       </c>
       <c r="B36" s="2">
-        <v>43686</v>
+        <v>43693</v>
       </c>
       <c r="C36" s="1">
-        <v>288.08999999999997</v>
+        <v>289.95999999999998</v>
       </c>
       <c r="D36" s="1">
-        <v>293.62</v>
+        <v>294.14999999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>281.72000000000003</v>
+        <v>282.39</v>
       </c>
       <c r="F36" s="1">
-        <v>291.62</v>
+        <v>288.85000000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>296.85000000000002</v>
+        <v>296.31</v>
       </c>
       <c r="H36" s="1">
-        <v>288.33</v>
+        <v>286.95</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1935,28 +1935,28 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>43675</v>
+        <v>43682</v>
       </c>
       <c r="B37" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="C37" s="1">
-        <v>301.88</v>
+        <v>288.08999999999997</v>
       </c>
       <c r="D37" s="1">
-        <v>301.93</v>
+        <v>293.62</v>
       </c>
       <c r="E37" s="1">
-        <v>290.89999999999998</v>
+        <v>281.72000000000003</v>
       </c>
       <c r="F37" s="1">
-        <v>292.62</v>
+        <v>291.62</v>
       </c>
       <c r="G37" s="1">
-        <v>305.18</v>
+        <v>296.85000000000002</v>
       </c>
       <c r="H37" s="1">
-        <v>298.86</v>
+        <v>288.33</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1980,28 +1980,28 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>43668</v>
+        <v>43675</v>
       </c>
       <c r="B38" s="2">
-        <v>43672</v>
+        <v>43679</v>
       </c>
       <c r="C38" s="1">
-        <v>297.61</v>
+        <v>301.88</v>
       </c>
       <c r="D38" s="1">
-        <v>302.23</v>
+        <v>301.93</v>
       </c>
       <c r="E38" s="1">
-        <v>297.04000000000002</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="F38" s="1">
-        <v>302.01</v>
+        <v>292.62</v>
       </c>
       <c r="G38" s="1">
-        <v>301.06</v>
+        <v>305.18</v>
       </c>
       <c r="H38" s="1">
-        <v>293.26</v>
+        <v>298.86</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2025,28 +2025,28 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>43661</v>
+        <v>43668</v>
       </c>
       <c r="B39" s="2">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="C39" s="1">
-        <v>301.13</v>
+        <v>297.61</v>
       </c>
       <c r="D39" s="1">
-        <v>301.13</v>
+        <v>302.23</v>
       </c>
       <c r="E39" s="1">
-        <v>296.7</v>
+        <v>297.04000000000002</v>
       </c>
       <c r="F39" s="1">
-        <v>297.17</v>
+        <v>302.01</v>
       </c>
       <c r="G39" s="1">
-        <v>303.86</v>
+        <v>301.06</v>
       </c>
       <c r="H39" s="1">
-        <v>297.49</v>
+        <v>293.26</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2070,28 +2070,28 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="B40" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="C40" s="1">
-        <v>297.01</v>
+        <v>301.13</v>
       </c>
       <c r="D40" s="1">
-        <v>300.73</v>
+        <v>301.13</v>
       </c>
       <c r="E40" s="1">
-        <v>295.48</v>
+        <v>296.7</v>
       </c>
       <c r="F40" s="1">
-        <v>300.64999999999998</v>
+        <v>297.17</v>
       </c>
       <c r="G40" s="1">
-        <v>301.94</v>
+        <v>303.86</v>
       </c>
       <c r="H40" s="1">
-        <v>295</v>
+        <v>297.49</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2115,28 +2115,28 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>43647</v>
+        <v>43654</v>
       </c>
       <c r="B41" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="C41" s="1">
-        <v>296.68</v>
+        <v>297.01</v>
       </c>
       <c r="D41" s="1">
-        <v>298.82</v>
+        <v>300.73</v>
       </c>
       <c r="E41" s="1">
-        <v>294.33</v>
+        <v>295.48</v>
       </c>
       <c r="F41" s="1">
-        <v>298.45999999999998</v>
+        <v>300.64999999999998</v>
       </c>
       <c r="G41" s="1">
-        <v>296.95999999999998</v>
+        <v>301.94</v>
       </c>
       <c r="H41" s="1">
-        <v>289.04000000000002</v>
+        <v>295</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2160,28 +2160,28 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>43640</v>
+        <v>43647</v>
       </c>
       <c r="B42" s="2">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="C42" s="1">
-        <v>294.23</v>
+        <v>296.68</v>
       </c>
       <c r="D42" s="1">
-        <v>294.58</v>
+        <v>298.82</v>
       </c>
       <c r="E42" s="1">
-        <v>290.35000000000002</v>
+        <v>294.33</v>
       </c>
       <c r="F42" s="1">
-        <v>293</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="G42" s="1">
-        <v>298.08999999999997</v>
+        <v>296.95999999999998</v>
       </c>
       <c r="H42" s="1">
-        <v>289.87</v>
+        <v>289.04000000000002</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2205,28 +2205,28 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>43633</v>
+        <v>43640</v>
       </c>
       <c r="B43" s="2">
-        <v>43637</v>
+        <v>43644</v>
       </c>
       <c r="C43" s="1">
-        <v>289.52</v>
+        <v>294.23</v>
       </c>
       <c r="D43" s="1">
-        <v>296.31</v>
+        <v>294.58</v>
       </c>
       <c r="E43" s="1">
-        <v>289.18</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="F43" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G43" s="1">
-        <v>293.19</v>
+        <v>298.08999999999997</v>
       </c>
       <c r="H43" s="1">
-        <v>285.33999999999997</v>
+        <v>289.87</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2250,28 +2250,28 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>43626</v>
+        <v>43633</v>
       </c>
       <c r="B44" s="2">
-        <v>43630</v>
+        <v>43637</v>
       </c>
       <c r="C44" s="1">
-        <v>289.37</v>
+        <v>289.52</v>
       </c>
       <c r="D44" s="1">
-        <v>291.39999999999998</v>
+        <v>296.31</v>
       </c>
       <c r="E44" s="1">
-        <v>287.82</v>
+        <v>289.18</v>
       </c>
       <c r="F44" s="1">
-        <v>289.26</v>
+        <v>294</v>
       </c>
       <c r="G44" s="1">
-        <v>291.85000000000002</v>
+        <v>293.19</v>
       </c>
       <c r="H44" s="1">
-        <v>283.44</v>
+        <v>285.33999999999997</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2295,28 +2295,28 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>43619</v>
+        <v>43626</v>
       </c>
       <c r="B45" s="2">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="C45" s="1">
-        <v>275.31</v>
+        <v>289.37</v>
       </c>
       <c r="D45" s="1">
-        <v>288.85000000000002</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="E45" s="1">
-        <v>273.08999999999997</v>
+        <v>287.82</v>
       </c>
       <c r="F45" s="1">
-        <v>287.64999999999998</v>
+        <v>289.26</v>
       </c>
       <c r="G45" s="1">
-        <v>279.93</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="H45" s="1">
-        <v>270.63</v>
+        <v>283.44</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2340,28 +2340,28 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>43613</v>
+        <v>43619</v>
       </c>
       <c r="B46" s="2">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="C46" s="1">
-        <v>283.08999999999997</v>
+        <v>275.31</v>
       </c>
       <c r="D46" s="1">
-        <v>284.14999999999998</v>
+        <v>288.85000000000002</v>
       </c>
       <c r="E46" s="1">
-        <v>275.24</v>
+        <v>273.08999999999997</v>
       </c>
       <c r="F46" s="1">
-        <v>275.27</v>
+        <v>287.64999999999998</v>
       </c>
       <c r="G46" s="1">
-        <v>286.89999999999998</v>
+        <v>279.93</v>
       </c>
       <c r="H46" s="1">
-        <v>278.63</v>
+        <v>270.63</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2385,28 +2385,28 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>43605</v>
+        <v>43613</v>
       </c>
       <c r="B47" s="2">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="C47" s="1">
-        <v>284.06</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="D47" s="1">
-        <v>286.93</v>
+        <v>284.14999999999998</v>
       </c>
       <c r="E47" s="1">
-        <v>280.57</v>
+        <v>275.24</v>
       </c>
       <c r="F47" s="1">
-        <v>282.77999999999997</v>
+        <v>275.27</v>
       </c>
       <c r="G47" s="1">
-        <v>290</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="H47" s="1">
-        <v>281.63</v>
+        <v>278.63</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2430,28 +2430,28 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>43598</v>
+        <v>43605</v>
       </c>
       <c r="B48" s="2">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="C48" s="1">
-        <v>282.42</v>
+        <v>284.06</v>
       </c>
       <c r="D48" s="1">
-        <v>289.20999999999998</v>
+        <v>286.93</v>
       </c>
       <c r="E48" s="1">
-        <v>279.93</v>
+        <v>280.57</v>
       </c>
       <c r="F48" s="1">
-        <v>285.83999999999997</v>
+        <v>282.77999999999997</v>
       </c>
       <c r="G48" s="1">
-        <v>292.32</v>
+        <v>290</v>
       </c>
       <c r="H48" s="1">
-        <v>283.8</v>
+        <v>281.63</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2475,28 +2475,28 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>43591</v>
+        <v>43598</v>
       </c>
       <c r="B49" s="2">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="C49" s="1">
-        <v>289.25</v>
+        <v>282.42</v>
       </c>
       <c r="D49" s="1">
-        <v>293.31</v>
+        <v>289.20999999999998</v>
       </c>
       <c r="E49" s="1">
-        <v>282.3</v>
+        <v>279.93</v>
       </c>
       <c r="F49" s="1">
-        <v>288.10000000000002</v>
+        <v>285.83999999999997</v>
       </c>
       <c r="G49" s="1">
-        <v>297.17</v>
+        <v>292.32</v>
       </c>
       <c r="H49" s="1">
-        <v>290.87</v>
+        <v>283.8</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2520,28 +2520,28 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="B50" s="2">
-        <v>43588</v>
+        <v>43595</v>
       </c>
       <c r="C50" s="1">
-        <v>293.51</v>
+        <v>289.25</v>
       </c>
       <c r="D50" s="1">
-        <v>294.95</v>
+        <v>293.31</v>
       </c>
       <c r="E50" s="1">
-        <v>289.52</v>
+        <v>282.3</v>
       </c>
       <c r="F50" s="1">
-        <v>294.02999999999997</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="G50" s="1">
-        <v>296.5</v>
+        <v>297.17</v>
       </c>
       <c r="H50" s="1">
-        <v>290.25</v>
+        <v>290.87</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2565,28 +2565,28 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>43577</v>
+        <v>43584</v>
       </c>
       <c r="B51" s="2">
-        <v>43581</v>
+        <v>43588</v>
       </c>
       <c r="C51" s="1">
-        <v>289.17</v>
+        <v>293.51</v>
       </c>
       <c r="D51" s="1">
-        <v>293.49</v>
+        <v>294.95</v>
       </c>
       <c r="E51" s="1">
-        <v>289.07</v>
+        <v>289.52</v>
       </c>
       <c r="F51" s="1">
-        <v>293.41000000000003</v>
+        <v>294.02999999999997</v>
       </c>
       <c r="G51" s="1">
-        <v>293.19</v>
+        <v>296.5</v>
       </c>
       <c r="H51" s="1">
-        <v>286.85000000000002</v>
+        <v>290.25</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2610,28 +2610,28 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>43570</v>
+        <v>43577</v>
       </c>
       <c r="B52" s="2">
-        <v>43574</v>
+        <v>43581</v>
       </c>
       <c r="C52" s="1">
-        <v>290.24</v>
+        <v>289.17</v>
       </c>
       <c r="D52" s="1">
-        <v>291.43</v>
+        <v>293.49</v>
       </c>
       <c r="E52" s="1">
-        <v>288.66000000000003</v>
+        <v>289.07</v>
       </c>
       <c r="F52" s="1">
-        <v>290.02</v>
+        <v>293.41000000000003</v>
       </c>
       <c r="G52" s="1">
         <v>293.19</v>
       </c>
       <c r="H52" s="1">
-        <v>287.14</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2655,28 +2655,28 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>43563</v>
+        <v>43570</v>
       </c>
       <c r="B53" s="2">
-        <v>43567</v>
+        <v>43574</v>
       </c>
       <c r="C53" s="1">
-        <v>288.10000000000002</v>
+        <v>290.24</v>
       </c>
       <c r="D53" s="1">
-        <v>290.47000000000003</v>
+        <v>291.43</v>
       </c>
       <c r="E53" s="1">
-        <v>286.7</v>
+        <v>288.66000000000003</v>
       </c>
       <c r="F53" s="1">
-        <v>290.16000000000003</v>
+        <v>290.02</v>
       </c>
       <c r="G53" s="1">
-        <v>291.89999999999998</v>
+        <v>293.19</v>
       </c>
       <c r="H53" s="1">
-        <v>285.2</v>
+        <v>287.14</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>43556</v>
+        <v>43563</v>
       </c>
       <c r="B54" s="2">
-        <v>43560</v>
+        <v>43567</v>
       </c>
       <c r="C54" s="1">
-        <v>284.7</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="D54" s="1">
-        <v>288.63</v>
+        <v>290.47000000000003</v>
       </c>
       <c r="E54" s="1">
-        <v>284.39999999999998</v>
+        <v>286.7</v>
       </c>
       <c r="F54" s="1">
-        <v>288.57</v>
+        <v>290.16000000000003</v>
       </c>
       <c r="G54" s="1">
-        <v>286.06</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="H54" s="1">
-        <v>278.93</v>
+        <v>285.2</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2745,28 +2745,28 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>43549</v>
+        <v>43556</v>
       </c>
       <c r="B55" s="2">
-        <v>43553</v>
+        <v>43560</v>
       </c>
       <c r="C55" s="1">
-        <v>278.87</v>
+        <v>284.7</v>
       </c>
       <c r="D55" s="1">
-        <v>282.83999999999997</v>
+        <v>288.63</v>
       </c>
       <c r="E55" s="1">
-        <v>277.64</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="F55" s="1">
-        <v>282.48</v>
+        <v>288.57</v>
       </c>
       <c r="G55" s="1">
-        <v>283.33</v>
+        <v>286.06</v>
       </c>
       <c r="H55" s="1">
-        <v>275.11</v>
+        <v>278.93</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2790,28 +2790,28 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="B56" s="2">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="C56" s="1">
-        <v>281.55</v>
+        <v>278.87</v>
       </c>
       <c r="D56" s="1">
-        <v>285.18</v>
+        <v>282.83999999999997</v>
       </c>
       <c r="E56" s="1">
-        <v>279.18</v>
+        <v>277.64</v>
       </c>
       <c r="F56" s="1">
-        <v>279.25</v>
+        <v>282.48</v>
       </c>
       <c r="G56" s="1">
-        <v>284.55</v>
+        <v>283.33</v>
       </c>
       <c r="H56" s="1">
-        <v>278.14</v>
+        <v>275.11</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2835,28 +2835,28 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B57" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="C57" s="1">
-        <v>275.26</v>
+        <v>281.55</v>
       </c>
       <c r="D57" s="1">
-        <v>282.38</v>
+        <v>285.18</v>
       </c>
       <c r="E57" s="1">
-        <v>275.23</v>
+        <v>279.18</v>
       </c>
       <c r="F57" s="1">
-        <v>281.31</v>
+        <v>279.25</v>
       </c>
       <c r="G57" s="1">
-        <v>278.36</v>
+        <v>284.55</v>
       </c>
       <c r="H57" s="1">
-        <v>270.58</v>
+        <v>278.14</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2880,28 +2880,28 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>43528</v>
+        <v>43535</v>
       </c>
       <c r="B58" s="2">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="C58" s="1">
-        <v>281.60000000000002</v>
+        <v>275.26</v>
       </c>
       <c r="D58" s="1">
-        <v>281.87</v>
+        <v>282.38</v>
       </c>
       <c r="E58" s="1">
-        <v>272.42</v>
+        <v>275.23</v>
       </c>
       <c r="F58" s="1">
-        <v>274.45999999999998</v>
+        <v>281.31</v>
       </c>
       <c r="G58" s="1">
-        <v>283.89999999999998</v>
+        <v>278.36</v>
       </c>
       <c r="H58" s="1">
-        <v>276.92</v>
+        <v>270.58</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2925,28 +2925,28 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>43521</v>
+        <v>43528</v>
       </c>
       <c r="B59" s="2">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="C59" s="1">
-        <v>280.73</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="D59" s="1">
-        <v>281.31</v>
+        <v>281.87</v>
       </c>
       <c r="E59" s="1">
-        <v>277.48</v>
+        <v>272.42</v>
       </c>
       <c r="F59" s="1">
-        <v>280.42</v>
+        <v>274.45999999999998</v>
       </c>
       <c r="G59" s="1">
-        <v>282.52</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="H59" s="1">
-        <v>275.62</v>
+        <v>276.92</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2970,28 +2970,28 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>43515</v>
+        <v>43521</v>
       </c>
       <c r="B60" s="2">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="C60" s="1">
-        <v>276.48</v>
+        <v>280.73</v>
       </c>
       <c r="D60" s="1">
-        <v>279.36</v>
+        <v>281.31</v>
       </c>
       <c r="E60" s="1">
-        <v>276.35000000000002</v>
+        <v>277.48</v>
       </c>
       <c r="F60" s="1">
-        <v>279.14</v>
+        <v>280.42</v>
       </c>
       <c r="G60" s="1">
-        <v>281.24</v>
+        <v>282.52</v>
       </c>
       <c r="H60" s="1">
-        <v>273.45999999999998</v>
+        <v>275.62</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3015,28 +3015,28 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="B61" s="2">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="C61" s="1">
-        <v>271.2</v>
+        <v>276.48</v>
       </c>
       <c r="D61" s="1">
-        <v>277.41000000000003</v>
+        <v>279.36</v>
       </c>
       <c r="E61" s="1">
-        <v>270.02999999999997</v>
+        <v>276.35000000000002</v>
       </c>
       <c r="F61" s="1">
-        <v>277.37</v>
+        <v>279.14</v>
       </c>
       <c r="G61" s="1">
-        <v>274.39</v>
+        <v>281.24</v>
       </c>
       <c r="H61" s="1">
-        <v>266.54000000000002</v>
+        <v>273.45999999999998</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3060,28 +3060,28 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>43500</v>
+        <v>43507</v>
       </c>
       <c r="B62" s="2">
-        <v>43504</v>
+        <v>43511</v>
       </c>
       <c r="C62" s="1">
-        <v>270.11</v>
+        <v>271.2</v>
       </c>
       <c r="D62" s="1">
-        <v>273.44</v>
+        <v>277.41000000000003</v>
       </c>
       <c r="E62" s="1">
-        <v>267.83</v>
+        <v>270.02999999999997</v>
       </c>
       <c r="F62" s="1">
-        <v>270.47000000000003</v>
+        <v>277.37</v>
       </c>
       <c r="G62" s="1">
-        <v>273.17</v>
+        <v>274.39</v>
       </c>
       <c r="H62" s="1">
-        <v>266.98</v>
+        <v>266.54000000000002</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3105,28 +3105,28 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>43493</v>
+        <v>43500</v>
       </c>
       <c r="B63" s="2">
-        <v>43497</v>
+        <v>43504</v>
       </c>
       <c r="C63" s="1">
-        <v>263.39</v>
+        <v>270.11</v>
       </c>
       <c r="D63" s="1">
-        <v>271.2</v>
+        <v>273.44</v>
       </c>
       <c r="E63" s="1">
-        <v>261.79000000000002</v>
+        <v>267.83</v>
       </c>
       <c r="F63" s="1">
-        <v>270.06</v>
+        <v>270.47000000000003</v>
       </c>
       <c r="G63" s="1">
-        <v>269.27999999999997</v>
+        <v>273.17</v>
       </c>
       <c r="H63" s="1">
-        <v>262.08</v>
+        <v>266.98</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3150,28 +3150,28 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>43487</v>
+        <v>43493</v>
       </c>
       <c r="B64" s="2">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="C64" s="1">
-        <v>264.82</v>
+        <v>263.39</v>
       </c>
       <c r="D64" s="1">
-        <v>266.7</v>
+        <v>271.2</v>
       </c>
       <c r="E64" s="1">
-        <v>260.66000000000003</v>
+        <v>261.79000000000002</v>
       </c>
       <c r="F64" s="1">
-        <v>265.77999999999997</v>
+        <v>270.06</v>
       </c>
       <c r="G64" s="1">
-        <v>270.58</v>
+        <v>269.27999999999997</v>
       </c>
       <c r="H64" s="1">
-        <v>262.18</v>
+        <v>262.08</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3195,28 +3195,28 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>43479</v>
+        <v>43487</v>
       </c>
       <c r="B65" s="2">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="C65" s="1">
-        <v>256.86</v>
+        <v>264.82</v>
       </c>
       <c r="D65" s="1">
-        <v>266.98</v>
+        <v>266.7</v>
       </c>
       <c r="E65" s="1">
-        <v>256.41000000000003</v>
+        <v>260.66000000000003</v>
       </c>
       <c r="F65" s="1">
-        <v>266.45999999999998</v>
+        <v>265.77999999999997</v>
       </c>
       <c r="G65" s="1">
-        <v>263.19</v>
+        <v>270.58</v>
       </c>
       <c r="H65" s="1">
-        <v>254.6</v>
+        <v>262.18</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3240,28 +3240,28 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>43472</v>
+        <v>43479</v>
       </c>
       <c r="B66" s="2">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="C66" s="1">
-        <v>252.69</v>
+        <v>256.86</v>
       </c>
       <c r="D66" s="1">
-        <v>259.16000000000003</v>
+        <v>266.98</v>
       </c>
       <c r="E66" s="1">
-        <v>251.69</v>
+        <v>256.41000000000003</v>
       </c>
       <c r="F66" s="1">
-        <v>258.98</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="G66" s="1">
-        <v>256.42</v>
+        <v>263.19</v>
       </c>
       <c r="H66" s="1">
-        <v>248.22</v>
+        <v>254.6</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3285,28 +3285,28 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>43465</v>
+        <v>43472</v>
       </c>
       <c r="B67" s="2">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="C67" s="1">
-        <v>249.56</v>
+        <v>252.69</v>
       </c>
       <c r="D67" s="1">
-        <v>253.11</v>
+        <v>259.16000000000003</v>
       </c>
       <c r="E67" s="1">
-        <v>243.67</v>
+        <v>251.69</v>
       </c>
       <c r="F67" s="1">
-        <v>252.39</v>
+        <v>258.98</v>
       </c>
       <c r="G67" s="1">
-        <v>253.59</v>
+        <v>256.42</v>
       </c>
       <c r="H67" s="1">
-        <v>241.95</v>
+        <v>248.22</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3330,28 +3330,28 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>43458</v>
+        <v>43465</v>
       </c>
       <c r="B68" s="2">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="C68" s="1">
-        <v>239.04</v>
+        <v>249.56</v>
       </c>
       <c r="D68" s="1">
-        <v>251.4</v>
+        <v>253.11</v>
       </c>
       <c r="E68" s="1">
-        <v>233.76</v>
+        <v>243.67</v>
       </c>
       <c r="F68" s="1">
-        <v>247.75</v>
+        <v>252.39</v>
       </c>
       <c r="G68" s="1">
-        <v>247.01</v>
+        <v>253.59</v>
       </c>
       <c r="H68" s="1">
-        <v>234.37</v>
+        <v>241.95</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3375,28 +3375,28 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>43451</v>
+        <v>43458</v>
       </c>
       <c r="B69" s="2">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="C69" s="1">
-        <v>259.39999999999998</v>
+        <v>239.04</v>
       </c>
       <c r="D69" s="1">
-        <v>260.64999999999998</v>
+        <v>251.4</v>
       </c>
       <c r="E69" s="1">
-        <v>239.98</v>
+        <v>233.76</v>
       </c>
       <c r="F69" s="1">
-        <v>240.7</v>
+        <v>247.75</v>
       </c>
       <c r="G69" s="1">
-        <v>266.63</v>
+        <v>247.01</v>
       </c>
       <c r="H69" s="1">
-        <v>254.29</v>
+        <v>234.37</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3418,6 +3418,51 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43455</v>
+      </c>
+      <c r="C70" s="1">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>260.64999999999998</v>
+      </c>
+      <c r="E70" s="1">
+        <v>239.98</v>
+      </c>
+      <c r="F70" s="1">
+        <v>240.7</v>
+      </c>
+      <c r="G70" s="1">
+        <v>266.63</v>
+      </c>
+      <c r="H70" s="1">
+        <v>254.29</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExpectedMove/expected_moves.xlsx
+++ b/ExpectedMove/expected_moves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dallincoons/Projects/expected_move/ExpectedMove/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850DBAA-68A0-8941-AD09-2E21DE5BEFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD940E75-387E-D748-BB20-37035178FA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="1080" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>week_start</t>
   </si>
   <si>
     <t>week_end</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
   <si>
     <t>expected_high</t>
@@ -305,15 +293,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,18 +314,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -353,36 +333,24 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>43927</v>
+        <v>43990</v>
       </c>
       <c r="B2" s="2">
-        <v>43930</v>
+        <v>43994</v>
       </c>
       <c r="C2" s="1">
-        <v>257.83999999999997</v>
+        <v>327.30099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>281.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>248.17</v>
-      </c>
-      <c r="F2" s="1">
-        <v>278.2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>259.94099999999997</v>
-      </c>
-      <c r="H2" s="1">
-        <v>236.43899999999999</v>
-      </c>
+        <v>311.37900000000002</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -398,36 +366,24 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>43920</v>
+        <v>43983</v>
       </c>
       <c r="B3" s="2">
-        <v>43924</v>
+        <v>43987</v>
       </c>
       <c r="C3" s="1">
-        <v>255.7</v>
+        <v>312.40300000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>263.33</v>
-      </c>
-      <c r="E3" s="1">
-        <v>247.6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>248.89</v>
-      </c>
-      <c r="G3" s="1">
-        <v>274.065</v>
-      </c>
-      <c r="H3" s="1">
-        <v>232.77500000000001</v>
-      </c>
+        <v>296.238</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -443,36 +399,24 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>43913</v>
+        <v>43977</v>
       </c>
       <c r="B4" s="2">
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="C4" s="1">
-        <v>228.19</v>
+        <v>302.72399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>262.8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>218.26</v>
-      </c>
-      <c r="F4" s="1">
-        <v>253.42</v>
-      </c>
-      <c r="G4" s="1">
-        <v>251.554</v>
-      </c>
-      <c r="H4" s="1">
-        <v>206.04599999999999</v>
-      </c>
+        <v>288.15699999999998</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -488,36 +432,24 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>43906</v>
+        <v>43969</v>
       </c>
       <c r="B5" s="2">
-        <v>43910</v>
+        <v>43973</v>
       </c>
       <c r="C5" s="1">
-        <v>241.18</v>
+        <v>295.642</v>
       </c>
       <c r="D5" s="1">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="E5" s="1">
-        <v>228.02</v>
-      </c>
-      <c r="F5" s="1">
-        <v>228.8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>292.32</v>
-      </c>
-      <c r="H5" s="1">
-        <v>246.32</v>
-      </c>
+        <v>276.91800000000001</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -533,36 +465,24 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>43899</v>
+        <v>43962</v>
       </c>
       <c r="B6" s="2">
-        <v>43903</v>
+        <v>43966</v>
       </c>
       <c r="C6" s="1">
-        <v>275.3</v>
+        <v>300.464</v>
       </c>
       <c r="D6" s="1">
-        <v>288.52</v>
-      </c>
-      <c r="E6" s="1">
-        <v>247.68</v>
-      </c>
-      <c r="F6" s="1">
-        <v>248.11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>313.53199999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>281.38799999999998</v>
-      </c>
+        <v>284.416</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -578,36 +498,24 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>43892</v>
+        <v>43955</v>
       </c>
       <c r="B7" s="2">
-        <v>43896</v>
+        <v>43959</v>
       </c>
       <c r="C7" s="1">
-        <v>298.20999999999998</v>
+        <v>293.64100000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>313.83999999999997</v>
-      </c>
-      <c r="E7" s="1">
-        <v>290.23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>297.45999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>314.45999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>278.06</v>
-      </c>
+        <v>271.93900000000002</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -623,36 +531,24 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>43885</v>
+        <v>43948</v>
       </c>
       <c r="B8" s="2">
-        <v>43889</v>
+        <v>43952</v>
       </c>
       <c r="C8" s="1">
-        <v>323.14</v>
+        <v>292.67</v>
       </c>
       <c r="D8" s="1">
-        <v>337.06</v>
-      </c>
-      <c r="E8" s="1">
-        <v>285.54000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>296.26</v>
-      </c>
-      <c r="G8" s="1">
-        <v>338.75</v>
-      </c>
-      <c r="H8" s="1">
-        <v>328.24</v>
-      </c>
+        <v>273.27</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -668,36 +564,24 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>43879</v>
+        <v>43941</v>
       </c>
       <c r="B9" s="2">
-        <v>43882</v>
+        <v>43945</v>
       </c>
       <c r="C9" s="1">
-        <v>336.51</v>
+        <v>290.10500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>339.08</v>
-      </c>
-      <c r="E9" s="1">
-        <v>332.58</v>
-      </c>
-      <c r="F9" s="1">
-        <v>333.48</v>
-      </c>
-      <c r="G9" s="1">
-        <v>341.637</v>
-      </c>
-      <c r="H9" s="1">
-        <v>333.56299999999999</v>
-      </c>
+        <v>267.815</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -713,36 +597,24 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>43871</v>
+        <v>43934</v>
       </c>
       <c r="B10" s="2">
-        <v>43875</v>
+        <v>43938</v>
       </c>
       <c r="C10" s="1">
-        <v>331.23</v>
+        <v>291.83100000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>338.12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>331.19</v>
-      </c>
-      <c r="F10" s="1">
-        <v>337.6</v>
-      </c>
-      <c r="G10" s="1">
-        <v>337.32600000000002</v>
-      </c>
-      <c r="H10" s="1">
-        <v>327.07799999999997</v>
-      </c>
+        <v>264.56900000000002</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -758,36 +630,24 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>43864</v>
+        <v>43927</v>
       </c>
       <c r="B11" s="2">
-        <v>43868</v>
+        <v>43930</v>
       </c>
       <c r="C11" s="1">
-        <v>323.35000000000002</v>
+        <v>259.94099999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>334.49</v>
-      </c>
-      <c r="E11" s="1">
-        <v>323.22000000000003</v>
-      </c>
-      <c r="F11" s="1">
-        <v>332.2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>327.82</v>
-      </c>
-      <c r="H11" s="1">
-        <v>315.64</v>
-      </c>
+        <v>236.43899999999999</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -803,36 +663,24 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>43857</v>
+        <v>43920</v>
       </c>
       <c r="B12" s="2">
-        <v>43861</v>
+        <v>43924</v>
       </c>
       <c r="C12" s="1">
-        <v>323.02999999999997</v>
+        <v>274.065</v>
       </c>
       <c r="D12" s="1">
-        <v>328.63</v>
-      </c>
-      <c r="E12" s="1">
-        <v>320.73</v>
-      </c>
-      <c r="F12" s="1">
-        <v>321.73</v>
-      </c>
-      <c r="G12" s="1">
-        <v>334.03699999999998</v>
-      </c>
-      <c r="H12" s="1">
-        <v>323.50400000000002</v>
-      </c>
+        <v>232.77500000000001</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -848,36 +696,24 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>43851</v>
+        <v>43913</v>
       </c>
       <c r="B13" s="2">
-        <v>43854</v>
+        <v>43917</v>
       </c>
       <c r="C13" s="1">
-        <v>332.44</v>
+        <v>251.554</v>
       </c>
       <c r="D13" s="1">
-        <v>332.53</v>
-      </c>
-      <c r="E13" s="1">
-        <v>327.36</v>
-      </c>
-      <c r="F13" s="1">
-        <v>328.77</v>
-      </c>
-      <c r="G13" s="1">
-        <v>334.07</v>
-      </c>
-      <c r="H13" s="1">
-        <v>329.83</v>
-      </c>
+        <v>206.04599999999999</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -893,36 +729,24 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43906</v>
       </c>
       <c r="B14" s="2">
-        <v>43847</v>
+        <v>43910</v>
       </c>
       <c r="C14" s="1">
-        <v>326.39</v>
+        <v>292.32</v>
       </c>
       <c r="D14" s="1">
-        <v>332.18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>325.92</v>
-      </c>
-      <c r="F14" s="1">
-        <v>331.95</v>
-      </c>
-      <c r="G14" s="1">
-        <v>329.14</v>
-      </c>
-      <c r="H14" s="1">
-        <v>322.27999999999997</v>
-      </c>
+        <v>246.32</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -938,36 +762,24 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>43836</v>
+        <v>43899</v>
       </c>
       <c r="B15" s="2">
-        <v>43840</v>
+        <v>43903</v>
       </c>
       <c r="C15" s="1">
-        <v>320.49</v>
+        <v>313.53199999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>327.45999999999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>325.70999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>325.70999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>325.54000000000002</v>
-      </c>
-      <c r="H15" s="1">
-        <v>319.27999999999997</v>
-      </c>
+        <v>281.38799999999998</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -983,36 +795,24 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>43829</v>
+        <v>43892</v>
       </c>
       <c r="B16" s="2">
-        <v>43833</v>
+        <v>43896</v>
       </c>
       <c r="C16" s="1">
-        <v>322.95</v>
+        <v>314.45999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>324.89</v>
-      </c>
-      <c r="E16" s="1">
-        <v>320.14999999999998</v>
-      </c>
-      <c r="F16" s="1">
-        <v>322.41000000000003</v>
-      </c>
-      <c r="G16" s="1">
-        <v>326.23</v>
-      </c>
-      <c r="H16" s="1">
-        <v>319.5</v>
-      </c>
+        <v>278.06</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1028,36 +828,24 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>43822</v>
+        <v>43885</v>
       </c>
       <c r="B17" s="2">
-        <v>43826</v>
+        <v>43889</v>
       </c>
       <c r="C17" s="1">
-        <v>321.58999999999997</v>
+        <v>338.75</v>
       </c>
       <c r="D17" s="1">
-        <v>323.8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>320.89999999999998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>322.86</v>
-      </c>
-      <c r="G17" s="1">
-        <v>324.20999999999998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>317.23</v>
-      </c>
+        <v>328.24</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1073,36 +861,24 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>43815</v>
+        <v>43879</v>
       </c>
       <c r="B18" s="2">
-        <v>43819</v>
+        <v>43882</v>
       </c>
       <c r="C18" s="1">
-        <v>319.22000000000003</v>
+        <v>341.637</v>
       </c>
       <c r="D18" s="1">
-        <v>321.97000000000003</v>
-      </c>
-      <c r="E18" s="1">
-        <v>317.25</v>
-      </c>
-      <c r="F18" s="1">
-        <v>320.73</v>
-      </c>
-      <c r="G18" s="1">
-        <v>320.94</v>
-      </c>
-      <c r="H18" s="1">
-        <v>313.70999999999998</v>
-      </c>
+        <v>333.56299999999999</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1118,36 +894,24 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>43808</v>
+        <v>43871</v>
       </c>
       <c r="B19" s="2">
-        <v>43812</v>
+        <v>43875</v>
       </c>
       <c r="C19" s="1">
-        <v>314.44</v>
+        <v>337.32600000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>318.67</v>
-      </c>
-      <c r="E19" s="1">
-        <v>312.81</v>
-      </c>
-      <c r="F19" s="1">
-        <v>317.32</v>
-      </c>
-      <c r="G19" s="1">
-        <v>318.19</v>
-      </c>
-      <c r="H19" s="1">
-        <v>311.56</v>
-      </c>
+        <v>327.07799999999997</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1163,36 +927,24 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>43801</v>
+        <v>43864</v>
       </c>
       <c r="B20" s="2">
-        <v>43805</v>
+        <v>43868</v>
       </c>
       <c r="C20" s="1">
-        <v>314.58999999999997</v>
+        <v>327.82</v>
       </c>
       <c r="D20" s="1">
-        <v>315.31</v>
-      </c>
-      <c r="E20" s="1">
-        <v>307.13</v>
-      </c>
-      <c r="F20" s="1">
-        <v>314.87</v>
-      </c>
-      <c r="G20" s="1">
-        <v>317.69</v>
-      </c>
-      <c r="H20" s="1">
-        <v>310.92</v>
-      </c>
+        <v>315.64</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1208,36 +960,24 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>43794</v>
+        <v>43857</v>
       </c>
       <c r="B21" s="2">
-        <v>43798</v>
+        <v>43861</v>
       </c>
       <c r="C21" s="1">
-        <v>311.98</v>
+        <v>334.03699999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>315.48</v>
-      </c>
-      <c r="E21" s="1">
-        <v>311.98</v>
-      </c>
-      <c r="F21" s="1">
-        <v>314.31</v>
-      </c>
-      <c r="G21" s="1">
-        <v>314.56</v>
-      </c>
-      <c r="H21" s="1">
-        <v>307.39</v>
-      </c>
+        <v>323.50400000000002</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1253,36 +993,24 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>43787</v>
+        <v>43851</v>
       </c>
       <c r="B22" s="2">
-        <v>43791</v>
+        <v>43854</v>
       </c>
       <c r="C22" s="1">
-        <v>311.52999999999997</v>
+        <v>334.07</v>
       </c>
       <c r="D22" s="1">
-        <v>312.69</v>
-      </c>
-      <c r="E22" s="1">
-        <v>309.06</v>
-      </c>
-      <c r="F22" s="1">
-        <v>310.95999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>315.3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>308.25</v>
-      </c>
+        <v>329.83</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1298,36 +1026,24 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>43780</v>
+        <v>43843</v>
       </c>
       <c r="B23" s="2">
-        <v>43784</v>
+        <v>43847</v>
       </c>
       <c r="C23" s="1">
-        <v>307.42</v>
+        <v>329.14</v>
       </c>
       <c r="D23" s="1">
-        <v>311.83999999999997</v>
-      </c>
-      <c r="E23" s="1">
-        <v>307.27</v>
-      </c>
-      <c r="F23" s="1">
-        <v>311.79000000000002</v>
-      </c>
-      <c r="G23" s="1">
-        <v>312.52</v>
-      </c>
-      <c r="H23" s="1">
-        <v>305.36</v>
-      </c>
+        <v>322.27999999999997</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1343,36 +1059,24 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>43773</v>
+        <v>43836</v>
       </c>
       <c r="B24" s="2">
-        <v>43777</v>
+        <v>43840</v>
       </c>
       <c r="C24" s="1">
-        <v>307.85000000000002</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>309.64999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>306.06</v>
-      </c>
-      <c r="F24" s="1">
-        <v>308.94</v>
-      </c>
-      <c r="G24" s="1">
-        <v>309.85000000000002</v>
-      </c>
-      <c r="H24" s="1">
-        <v>302.44</v>
-      </c>
+        <v>319.27999999999997</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1388,36 +1092,24 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>43766</v>
+        <v>43829</v>
       </c>
       <c r="B25" s="2">
-        <v>43770</v>
+        <v>43833</v>
       </c>
       <c r="C25" s="1">
-        <v>302.94</v>
+        <v>326.23</v>
       </c>
       <c r="D25" s="1">
-        <v>306.19</v>
-      </c>
-      <c r="E25" s="1">
-        <v>301.73</v>
-      </c>
-      <c r="F25" s="1">
-        <v>306.14</v>
-      </c>
-      <c r="G25" s="1">
-        <v>305.2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>298.01</v>
-      </c>
+        <v>319.5</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1433,36 +1125,24 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>43759</v>
+        <v>43822</v>
       </c>
       <c r="B26" s="2">
-        <v>43763</v>
+        <v>43826</v>
       </c>
       <c r="C26" s="1">
-        <v>299.42</v>
+        <v>324.20999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>302.2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>298.5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>301.60000000000002</v>
-      </c>
-      <c r="G26" s="1">
-        <v>301.77999999999997</v>
-      </c>
-      <c r="H26" s="1">
-        <v>294.14999999999998</v>
-      </c>
+        <v>317.23</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1478,36 +1158,24 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>43752</v>
+        <v>43815</v>
       </c>
       <c r="B27" s="2">
-        <v>43756</v>
+        <v>43819</v>
       </c>
       <c r="C27" s="1">
-        <v>295.93</v>
+        <v>320.94</v>
       </c>
       <c r="D27" s="1">
-        <v>300.24</v>
-      </c>
-      <c r="E27" s="1">
-        <v>295.57</v>
-      </c>
-      <c r="F27" s="1">
-        <v>297.97000000000003</v>
-      </c>
-      <c r="G27" s="1">
-        <v>300.29000000000002</v>
-      </c>
-      <c r="H27" s="1">
-        <v>292.26</v>
-      </c>
+        <v>313.70999999999998</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1523,36 +1191,24 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>43745</v>
+        <v>43808</v>
       </c>
       <c r="B28" s="2">
-        <v>43749</v>
+        <v>43812</v>
       </c>
       <c r="C28" s="1">
-        <v>293.47000000000003</v>
+        <v>318.19</v>
       </c>
       <c r="D28" s="1">
-        <v>298.74</v>
-      </c>
-      <c r="E28" s="1">
-        <v>288.49</v>
-      </c>
-      <c r="F28" s="1">
-        <v>296.27999999999997</v>
-      </c>
-      <c r="G28" s="1">
-        <v>298.93</v>
-      </c>
-      <c r="H28" s="1">
-        <v>289.74</v>
-      </c>
+        <v>311.56</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1568,36 +1224,24 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>43738</v>
+        <v>43801</v>
       </c>
       <c r="B29" s="2">
-        <v>43742</v>
+        <v>43805</v>
       </c>
       <c r="C29" s="1">
-        <v>295.97000000000003</v>
+        <v>317.69</v>
       </c>
       <c r="D29" s="1">
-        <v>298.45999999999998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>284.82</v>
-      </c>
-      <c r="F29" s="1">
-        <v>294.35000000000002</v>
-      </c>
-      <c r="G29" s="1">
-        <v>300.01</v>
-      </c>
-      <c r="H29" s="1">
-        <v>290.77999999999997</v>
-      </c>
+        <v>310.92</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1613,36 +1257,24 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>43731</v>
+        <v>43794</v>
       </c>
       <c r="B30" s="2">
-        <v>43735</v>
+        <v>43798</v>
       </c>
       <c r="C30" s="1">
-        <v>297.55</v>
+        <v>314.56</v>
       </c>
       <c r="D30" s="1">
-        <v>299.83999999999997</v>
-      </c>
-      <c r="E30" s="1">
-        <v>293.69</v>
-      </c>
-      <c r="F30" s="1">
-        <v>295.39999999999998</v>
-      </c>
-      <c r="G30" s="1">
-        <v>302.43</v>
-      </c>
-      <c r="H30" s="1">
-        <v>294.13</v>
-      </c>
+        <v>307.39</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1658,36 +1290,24 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>43724</v>
+        <v>43787</v>
       </c>
       <c r="B31" s="2">
-        <v>43728</v>
+        <v>43791</v>
       </c>
       <c r="C31" s="1">
-        <v>299.83999999999997</v>
+        <v>315.3</v>
       </c>
       <c r="D31" s="1">
-        <v>302.63</v>
-      </c>
-      <c r="E31" s="1">
-        <v>297.41000000000003</v>
-      </c>
-      <c r="F31" s="1">
-        <v>298.27999999999997</v>
-      </c>
-      <c r="G31" s="1">
-        <v>304.77999999999997</v>
-      </c>
-      <c r="H31" s="1">
-        <v>297.39999999999998</v>
-      </c>
+        <v>308.25</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1703,36 +1323,24 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>43717</v>
+        <v>43780</v>
       </c>
       <c r="B32" s="2">
-        <v>43721</v>
+        <v>43784</v>
       </c>
       <c r="C32" s="1">
-        <v>299.14</v>
+        <v>312.52</v>
       </c>
       <c r="D32" s="1">
-        <v>302.45999999999998</v>
-      </c>
-      <c r="E32" s="1">
-        <v>295.97000000000003</v>
-      </c>
-      <c r="F32" s="1">
-        <v>301.08999999999997</v>
-      </c>
-      <c r="G32" s="1">
-        <v>302.2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>293.89999999999998</v>
-      </c>
+        <v>305.36</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1748,36 +1356,24 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>43711</v>
+        <v>43773</v>
       </c>
       <c r="B33" s="2">
-        <v>43714</v>
+        <v>43777</v>
       </c>
       <c r="C33" s="1">
-        <v>290.57</v>
+        <v>309.85000000000002</v>
       </c>
       <c r="D33" s="1">
-        <v>298.83</v>
-      </c>
-      <c r="E33" s="1">
-        <v>289.27</v>
-      </c>
-      <c r="F33" s="1">
-        <v>298.05</v>
-      </c>
-      <c r="G33" s="1">
-        <v>297.49</v>
-      </c>
-      <c r="H33" s="1">
-        <v>287.39</v>
-      </c>
+        <v>302.44</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1793,36 +1389,24 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>43703</v>
+        <v>43766</v>
       </c>
       <c r="B34" s="2">
-        <v>43707</v>
+        <v>43770</v>
       </c>
       <c r="C34" s="1">
-        <v>287.27</v>
+        <v>305.2</v>
       </c>
       <c r="D34" s="1">
-        <v>294.24</v>
-      </c>
-      <c r="E34" s="1">
-        <v>285.25</v>
-      </c>
-      <c r="F34" s="1">
-        <v>292.45</v>
-      </c>
-      <c r="G34" s="1">
-        <v>290.10000000000002</v>
-      </c>
-      <c r="H34" s="1">
-        <v>279.60000000000002</v>
-      </c>
+        <v>298.01</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1838,36 +1422,24 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>43696</v>
+        <v>43759</v>
       </c>
       <c r="B35" s="2">
-        <v>43700</v>
+        <v>43763</v>
       </c>
       <c r="C35" s="1">
-        <v>292.19</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="D35" s="1">
-        <v>293.93</v>
-      </c>
-      <c r="E35" s="1">
-        <v>283.47000000000003</v>
-      </c>
-      <c r="F35" s="1">
-        <v>284.85000000000002</v>
-      </c>
-      <c r="G35" s="1">
-        <v>293.75</v>
-      </c>
-      <c r="H35" s="1">
-        <v>283.94</v>
-      </c>
+        <v>294.14999999999998</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1883,36 +1455,24 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>43689</v>
+        <v>43752</v>
       </c>
       <c r="B36" s="2">
-        <v>43693</v>
+        <v>43756</v>
       </c>
       <c r="C36" s="1">
-        <v>289.95999999999998</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="D36" s="1">
-        <v>294.14999999999998</v>
-      </c>
-      <c r="E36" s="1">
-        <v>282.39</v>
-      </c>
-      <c r="F36" s="1">
-        <v>288.85000000000002</v>
-      </c>
-      <c r="G36" s="1">
-        <v>296.31</v>
-      </c>
-      <c r="H36" s="1">
-        <v>286.95</v>
-      </c>
+        <v>292.26</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1928,36 +1488,24 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>43682</v>
+        <v>43745</v>
       </c>
       <c r="B37" s="2">
-        <v>43686</v>
+        <v>43749</v>
       </c>
       <c r="C37" s="1">
-        <v>288.08999999999997</v>
+        <v>298.93</v>
       </c>
       <c r="D37" s="1">
-        <v>293.62</v>
-      </c>
-      <c r="E37" s="1">
-        <v>281.72000000000003</v>
-      </c>
-      <c r="F37" s="1">
-        <v>291.62</v>
-      </c>
-      <c r="G37" s="1">
-        <v>296.85000000000002</v>
-      </c>
-      <c r="H37" s="1">
-        <v>288.33</v>
-      </c>
+        <v>289.74</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1973,36 +1521,24 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>43675</v>
+        <v>43738</v>
       </c>
       <c r="B38" s="2">
-        <v>43679</v>
+        <v>43742</v>
       </c>
       <c r="C38" s="1">
-        <v>301.88</v>
+        <v>300.01</v>
       </c>
       <c r="D38" s="1">
-        <v>301.93</v>
-      </c>
-      <c r="E38" s="1">
-        <v>290.89999999999998</v>
-      </c>
-      <c r="F38" s="1">
-        <v>292.62</v>
-      </c>
-      <c r="G38" s="1">
-        <v>305.18</v>
-      </c>
-      <c r="H38" s="1">
-        <v>298.86</v>
-      </c>
+        <v>290.77999999999997</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2018,36 +1554,24 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>43668</v>
+        <v>43731</v>
       </c>
       <c r="B39" s="2">
-        <v>43672</v>
+        <v>43735</v>
       </c>
       <c r="C39" s="1">
-        <v>297.61</v>
+        <v>302.43</v>
       </c>
       <c r="D39" s="1">
-        <v>302.23</v>
-      </c>
-      <c r="E39" s="1">
-        <v>297.04000000000002</v>
-      </c>
-      <c r="F39" s="1">
-        <v>302.01</v>
-      </c>
-      <c r="G39" s="1">
-        <v>301.06</v>
-      </c>
-      <c r="H39" s="1">
-        <v>293.26</v>
-      </c>
+        <v>294.13</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2063,36 +1587,24 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>43661</v>
+        <v>43724</v>
       </c>
       <c r="B40" s="2">
-        <v>43665</v>
+        <v>43728</v>
       </c>
       <c r="C40" s="1">
-        <v>301.13</v>
+        <v>304.77999999999997</v>
       </c>
       <c r="D40" s="1">
-        <v>301.13</v>
-      </c>
-      <c r="E40" s="1">
-        <v>296.7</v>
-      </c>
-      <c r="F40" s="1">
-        <v>297.17</v>
-      </c>
-      <c r="G40" s="1">
-        <v>303.86</v>
-      </c>
-      <c r="H40" s="1">
-        <v>297.49</v>
-      </c>
+        <v>297.39999999999998</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2108,36 +1620,24 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>43654</v>
+        <v>43717</v>
       </c>
       <c r="B41" s="2">
-        <v>43658</v>
+        <v>43721</v>
       </c>
       <c r="C41" s="1">
-        <v>297.01</v>
+        <v>302.2</v>
       </c>
       <c r="D41" s="1">
-        <v>300.73</v>
-      </c>
-      <c r="E41" s="1">
-        <v>295.48</v>
-      </c>
-      <c r="F41" s="1">
-        <v>300.64999999999998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>301.94</v>
-      </c>
-      <c r="H41" s="1">
-        <v>295</v>
-      </c>
+        <v>293.89999999999998</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2153,36 +1653,24 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>43647</v>
+        <v>43711</v>
       </c>
       <c r="B42" s="2">
-        <v>43651</v>
+        <v>43714</v>
       </c>
       <c r="C42" s="1">
-        <v>296.68</v>
+        <v>297.49</v>
       </c>
       <c r="D42" s="1">
-        <v>298.82</v>
-      </c>
-      <c r="E42" s="1">
-        <v>294.33</v>
-      </c>
-      <c r="F42" s="1">
-        <v>298.45999999999998</v>
-      </c>
-      <c r="G42" s="1">
-        <v>296.95999999999998</v>
-      </c>
-      <c r="H42" s="1">
-        <v>289.04000000000002</v>
-      </c>
+        <v>287.39</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2198,36 +1686,24 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>43640</v>
+        <v>43703</v>
       </c>
       <c r="B43" s="2">
-        <v>43644</v>
+        <v>43707</v>
       </c>
       <c r="C43" s="1">
-        <v>294.23</v>
+        <v>290.10000000000002</v>
       </c>
       <c r="D43" s="1">
-        <v>294.58</v>
-      </c>
-      <c r="E43" s="1">
-        <v>290.35000000000002</v>
-      </c>
-      <c r="F43" s="1">
-        <v>293</v>
-      </c>
-      <c r="G43" s="1">
-        <v>298.08999999999997</v>
-      </c>
-      <c r="H43" s="1">
-        <v>289.87</v>
-      </c>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2243,36 +1719,24 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>43633</v>
+        <v>43696</v>
       </c>
       <c r="B44" s="2">
-        <v>43637</v>
+        <v>43700</v>
       </c>
       <c r="C44" s="1">
-        <v>289.52</v>
+        <v>293.75</v>
       </c>
       <c r="D44" s="1">
-        <v>296.31</v>
-      </c>
-      <c r="E44" s="1">
-        <v>289.18</v>
-      </c>
-      <c r="F44" s="1">
-        <v>294</v>
-      </c>
-      <c r="G44" s="1">
-        <v>293.19</v>
-      </c>
-      <c r="H44" s="1">
-        <v>285.33999999999997</v>
-      </c>
+        <v>283.94</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2288,36 +1752,24 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>43626</v>
+        <v>43689</v>
       </c>
       <c r="B45" s="2">
-        <v>43630</v>
+        <v>43693</v>
       </c>
       <c r="C45" s="1">
-        <v>289.37</v>
+        <v>296.31</v>
       </c>
       <c r="D45" s="1">
-        <v>291.39999999999998</v>
-      </c>
-      <c r="E45" s="1">
-        <v>287.82</v>
-      </c>
-      <c r="F45" s="1">
-        <v>289.26</v>
-      </c>
-      <c r="G45" s="1">
-        <v>291.85000000000002</v>
-      </c>
-      <c r="H45" s="1">
-        <v>283.44</v>
-      </c>
+        <v>286.95</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2333,36 +1785,24 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>43619</v>
+        <v>43682</v>
       </c>
       <c r="B46" s="2">
-        <v>43623</v>
+        <v>43686</v>
       </c>
       <c r="C46" s="1">
-        <v>275.31</v>
+        <v>296.85000000000002</v>
       </c>
       <c r="D46" s="1">
-        <v>288.85000000000002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>273.08999999999997</v>
-      </c>
-      <c r="F46" s="1">
-        <v>287.64999999999998</v>
-      </c>
-      <c r="G46" s="1">
-        <v>279.93</v>
-      </c>
-      <c r="H46" s="1">
-        <v>270.63</v>
-      </c>
+        <v>288.33</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2378,36 +1818,24 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>43613</v>
+        <v>43675</v>
       </c>
       <c r="B47" s="2">
-        <v>43616</v>
+        <v>43679</v>
       </c>
       <c r="C47" s="1">
-        <v>283.08999999999997</v>
+        <v>305.18</v>
       </c>
       <c r="D47" s="1">
-        <v>284.14999999999998</v>
-      </c>
-      <c r="E47" s="1">
-        <v>275.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>275.27</v>
-      </c>
-      <c r="G47" s="1">
-        <v>286.89999999999998</v>
-      </c>
-      <c r="H47" s="1">
-        <v>278.63</v>
-      </c>
+        <v>298.86</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2423,36 +1851,24 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>43605</v>
+        <v>43668</v>
       </c>
       <c r="B48" s="2">
-        <v>43609</v>
+        <v>43672</v>
       </c>
       <c r="C48" s="1">
-        <v>284.06</v>
+        <v>301.06</v>
       </c>
       <c r="D48" s="1">
-        <v>286.93</v>
-      </c>
-      <c r="E48" s="1">
-        <v>280.57</v>
-      </c>
-      <c r="F48" s="1">
-        <v>282.77999999999997</v>
-      </c>
-      <c r="G48" s="1">
-        <v>290</v>
-      </c>
-      <c r="H48" s="1">
-        <v>281.63</v>
-      </c>
+        <v>293.26</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2468,36 +1884,24 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>43598</v>
+        <v>43661</v>
       </c>
       <c r="B49" s="2">
-        <v>43602</v>
+        <v>43665</v>
       </c>
       <c r="C49" s="1">
-        <v>282.42</v>
+        <v>303.86</v>
       </c>
       <c r="D49" s="1">
-        <v>289.20999999999998</v>
-      </c>
-      <c r="E49" s="1">
-        <v>279.93</v>
-      </c>
-      <c r="F49" s="1">
-        <v>285.83999999999997</v>
-      </c>
-      <c r="G49" s="1">
-        <v>292.32</v>
-      </c>
-      <c r="H49" s="1">
-        <v>283.8</v>
-      </c>
+        <v>297.49</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2513,36 +1917,24 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>43591</v>
+        <v>43654</v>
       </c>
       <c r="B50" s="2">
-        <v>43595</v>
+        <v>43658</v>
       </c>
       <c r="C50" s="1">
-        <v>289.25</v>
+        <v>301.94</v>
       </c>
       <c r="D50" s="1">
-        <v>293.31</v>
-      </c>
-      <c r="E50" s="1">
-        <v>282.3</v>
-      </c>
-      <c r="F50" s="1">
-        <v>288.10000000000002</v>
-      </c>
-      <c r="G50" s="1">
-        <v>297.17</v>
-      </c>
-      <c r="H50" s="1">
-        <v>290.87</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2558,36 +1950,24 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>43584</v>
+        <v>43647</v>
       </c>
       <c r="B51" s="2">
-        <v>43588</v>
+        <v>43651</v>
       </c>
       <c r="C51" s="1">
-        <v>293.51</v>
+        <v>296.95999999999998</v>
       </c>
       <c r="D51" s="1">
-        <v>294.95</v>
-      </c>
-      <c r="E51" s="1">
-        <v>289.52</v>
-      </c>
-      <c r="F51" s="1">
-        <v>294.02999999999997</v>
-      </c>
-      <c r="G51" s="1">
-        <v>296.5</v>
-      </c>
-      <c r="H51" s="1">
-        <v>290.25</v>
-      </c>
+        <v>289.04000000000002</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2603,36 +1983,24 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>43577</v>
+        <v>43640</v>
       </c>
       <c r="B52" s="2">
-        <v>43581</v>
+        <v>43644</v>
       </c>
       <c r="C52" s="1">
-        <v>289.17</v>
+        <v>298.08999999999997</v>
       </c>
       <c r="D52" s="1">
-        <v>293.49</v>
-      </c>
-      <c r="E52" s="1">
-        <v>289.07</v>
-      </c>
-      <c r="F52" s="1">
-        <v>293.41000000000003</v>
-      </c>
-      <c r="G52" s="1">
-        <v>293.19</v>
-      </c>
-      <c r="H52" s="1">
-        <v>286.85000000000002</v>
-      </c>
+        <v>289.87</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2648,36 +2016,24 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>43570</v>
+        <v>43633</v>
       </c>
       <c r="B53" s="2">
-        <v>43574</v>
+        <v>43637</v>
       </c>
       <c r="C53" s="1">
-        <v>290.24</v>
+        <v>293.19</v>
       </c>
       <c r="D53" s="1">
-        <v>291.43</v>
-      </c>
-      <c r="E53" s="1">
-        <v>288.66000000000003</v>
-      </c>
-      <c r="F53" s="1">
-        <v>290.02</v>
-      </c>
-      <c r="G53" s="1">
-        <v>293.19</v>
-      </c>
-      <c r="H53" s="1">
-        <v>287.14</v>
-      </c>
+        <v>285.33999999999997</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2693,36 +2049,24 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>43563</v>
+        <v>43626</v>
       </c>
       <c r="B54" s="2">
-        <v>43567</v>
+        <v>43630</v>
       </c>
       <c r="C54" s="1">
-        <v>288.10000000000002</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="D54" s="1">
-        <v>290.47000000000003</v>
-      </c>
-      <c r="E54" s="1">
-        <v>286.7</v>
-      </c>
-      <c r="F54" s="1">
-        <v>290.16000000000003</v>
-      </c>
-      <c r="G54" s="1">
-        <v>291.89999999999998</v>
-      </c>
-      <c r="H54" s="1">
-        <v>285.2</v>
-      </c>
+        <v>283.44</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2738,36 +2082,24 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>43556</v>
+        <v>43619</v>
       </c>
       <c r="B55" s="2">
-        <v>43560</v>
+        <v>43623</v>
       </c>
       <c r="C55" s="1">
-        <v>284.7</v>
+        <v>279.93</v>
       </c>
       <c r="D55" s="1">
-        <v>288.63</v>
-      </c>
-      <c r="E55" s="1">
-        <v>284.39999999999998</v>
-      </c>
-      <c r="F55" s="1">
-        <v>288.57</v>
-      </c>
-      <c r="G55" s="1">
-        <v>286.06</v>
-      </c>
-      <c r="H55" s="1">
-        <v>278.93</v>
-      </c>
+        <v>270.63</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -2783,36 +2115,24 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>43549</v>
+        <v>43613</v>
       </c>
       <c r="B56" s="2">
-        <v>43553</v>
+        <v>43616</v>
       </c>
       <c r="C56" s="1">
-        <v>278.87</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="D56" s="1">
-        <v>282.83999999999997</v>
-      </c>
-      <c r="E56" s="1">
-        <v>277.64</v>
-      </c>
-      <c r="F56" s="1">
-        <v>282.48</v>
-      </c>
-      <c r="G56" s="1">
-        <v>283.33</v>
-      </c>
-      <c r="H56" s="1">
-        <v>275.11</v>
-      </c>
+        <v>278.63</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2828,36 +2148,24 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>43542</v>
+        <v>43605</v>
       </c>
       <c r="B57" s="2">
-        <v>43546</v>
+        <v>43609</v>
       </c>
       <c r="C57" s="1">
-        <v>281.55</v>
+        <v>290</v>
       </c>
       <c r="D57" s="1">
-        <v>285.18</v>
-      </c>
-      <c r="E57" s="1">
-        <v>279.18</v>
-      </c>
-      <c r="F57" s="1">
-        <v>279.25</v>
-      </c>
-      <c r="G57" s="1">
-        <v>284.55</v>
-      </c>
-      <c r="H57" s="1">
-        <v>278.14</v>
-      </c>
+        <v>281.63</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -2873,36 +2181,24 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>43535</v>
+        <v>43598</v>
       </c>
       <c r="B58" s="2">
-        <v>43539</v>
+        <v>43602</v>
       </c>
       <c r="C58" s="1">
-        <v>275.26</v>
+        <v>292.32</v>
       </c>
       <c r="D58" s="1">
-        <v>282.38</v>
-      </c>
-      <c r="E58" s="1">
-        <v>275.23</v>
-      </c>
-      <c r="F58" s="1">
-        <v>281.31</v>
-      </c>
-      <c r="G58" s="1">
-        <v>278.36</v>
-      </c>
-      <c r="H58" s="1">
-        <v>270.58</v>
-      </c>
+        <v>283.8</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2918,36 +2214,24 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>43528</v>
+        <v>43591</v>
       </c>
       <c r="B59" s="2">
-        <v>43532</v>
+        <v>43595</v>
       </c>
       <c r="C59" s="1">
-        <v>281.60000000000002</v>
+        <v>297.17</v>
       </c>
       <c r="D59" s="1">
-        <v>281.87</v>
-      </c>
-      <c r="E59" s="1">
-        <v>272.42</v>
-      </c>
-      <c r="F59" s="1">
-        <v>274.45999999999998</v>
-      </c>
-      <c r="G59" s="1">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="H59" s="1">
-        <v>276.92</v>
-      </c>
+        <v>290.87</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2963,36 +2247,24 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>43521</v>
+        <v>43584</v>
       </c>
       <c r="B60" s="2">
-        <v>43525</v>
+        <v>43588</v>
       </c>
       <c r="C60" s="1">
-        <v>280.73</v>
+        <v>296.5</v>
       </c>
       <c r="D60" s="1">
-        <v>281.31</v>
-      </c>
-      <c r="E60" s="1">
-        <v>277.48</v>
-      </c>
-      <c r="F60" s="1">
-        <v>280.42</v>
-      </c>
-      <c r="G60" s="1">
-        <v>282.52</v>
-      </c>
-      <c r="H60" s="1">
-        <v>275.62</v>
-      </c>
+        <v>290.25</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3008,36 +2280,24 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>43515</v>
+        <v>43577</v>
       </c>
       <c r="B61" s="2">
-        <v>43518</v>
+        <v>43581</v>
       </c>
       <c r="C61" s="1">
-        <v>276.48</v>
+        <v>293.19</v>
       </c>
       <c r="D61" s="1">
-        <v>279.36</v>
-      </c>
-      <c r="E61" s="1">
-        <v>276.35000000000002</v>
-      </c>
-      <c r="F61" s="1">
-        <v>279.14</v>
-      </c>
-      <c r="G61" s="1">
-        <v>281.24</v>
-      </c>
-      <c r="H61" s="1">
-        <v>273.45999999999998</v>
-      </c>
+        <v>286.85000000000002</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3053,36 +2313,24 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>43507</v>
+        <v>43570</v>
       </c>
       <c r="B62" s="2">
-        <v>43511</v>
+        <v>43574</v>
       </c>
       <c r="C62" s="1">
-        <v>271.2</v>
+        <v>293.19</v>
       </c>
       <c r="D62" s="1">
-        <v>277.41000000000003</v>
-      </c>
-      <c r="E62" s="1">
-        <v>270.02999999999997</v>
-      </c>
-      <c r="F62" s="1">
-        <v>277.37</v>
-      </c>
-      <c r="G62" s="1">
-        <v>274.39</v>
-      </c>
-      <c r="H62" s="1">
-        <v>266.54000000000002</v>
-      </c>
+        <v>287.14</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3098,36 +2346,24 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>43500</v>
+        <v>43563</v>
       </c>
       <c r="B63" s="2">
-        <v>43504</v>
+        <v>43567</v>
       </c>
       <c r="C63" s="1">
-        <v>270.11</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="D63" s="1">
-        <v>273.44</v>
-      </c>
-      <c r="E63" s="1">
-        <v>267.83</v>
-      </c>
-      <c r="F63" s="1">
-        <v>270.47000000000003</v>
-      </c>
-      <c r="G63" s="1">
-        <v>273.17</v>
-      </c>
-      <c r="H63" s="1">
-        <v>266.98</v>
-      </c>
+        <v>285.2</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3143,36 +2379,24 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>43493</v>
+        <v>43556</v>
       </c>
       <c r="B64" s="2">
-        <v>43497</v>
+        <v>43560</v>
       </c>
       <c r="C64" s="1">
-        <v>263.39</v>
+        <v>286.06</v>
       </c>
       <c r="D64" s="1">
-        <v>271.2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>261.79000000000002</v>
-      </c>
-      <c r="F64" s="1">
-        <v>270.06</v>
-      </c>
-      <c r="G64" s="1">
-        <v>269.27999999999997</v>
-      </c>
-      <c r="H64" s="1">
-        <v>262.08</v>
-      </c>
+        <v>278.93</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3188,36 +2412,24 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>43487</v>
+        <v>43549</v>
       </c>
       <c r="B65" s="2">
-        <v>43490</v>
+        <v>43553</v>
       </c>
       <c r="C65" s="1">
-        <v>264.82</v>
+        <v>283.33</v>
       </c>
       <c r="D65" s="1">
-        <v>266.7</v>
-      </c>
-      <c r="E65" s="1">
-        <v>260.66000000000003</v>
-      </c>
-      <c r="F65" s="1">
-        <v>265.77999999999997</v>
-      </c>
-      <c r="G65" s="1">
-        <v>270.58</v>
-      </c>
-      <c r="H65" s="1">
-        <v>262.18</v>
-      </c>
+        <v>275.11</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3233,36 +2445,24 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>43479</v>
+        <v>43542</v>
       </c>
       <c r="B66" s="2">
-        <v>43483</v>
+        <v>43546</v>
       </c>
       <c r="C66" s="1">
-        <v>256.86</v>
+        <v>284.55</v>
       </c>
       <c r="D66" s="1">
-        <v>266.98</v>
-      </c>
-      <c r="E66" s="1">
-        <v>256.41000000000003</v>
-      </c>
-      <c r="F66" s="1">
-        <v>266.45999999999998</v>
-      </c>
-      <c r="G66" s="1">
-        <v>263.19</v>
-      </c>
-      <c r="H66" s="1">
-        <v>254.6</v>
-      </c>
+        <v>278.14</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3278,36 +2478,24 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>43472</v>
+        <v>43535</v>
       </c>
       <c r="B67" s="2">
-        <v>43476</v>
+        <v>43539</v>
       </c>
       <c r="C67" s="1">
-        <v>252.69</v>
+        <v>278.36</v>
       </c>
       <c r="D67" s="1">
-        <v>259.16000000000003</v>
-      </c>
-      <c r="E67" s="1">
-        <v>251.69</v>
-      </c>
-      <c r="F67" s="1">
-        <v>258.98</v>
-      </c>
-      <c r="G67" s="1">
-        <v>256.42</v>
-      </c>
-      <c r="H67" s="1">
-        <v>248.22</v>
-      </c>
+        <v>270.58</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3323,36 +2511,24 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>43465</v>
+        <v>43528</v>
       </c>
       <c r="B68" s="2">
-        <v>43469</v>
+        <v>43532</v>
       </c>
       <c r="C68" s="1">
-        <v>249.56</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="D68" s="1">
-        <v>253.11</v>
-      </c>
-      <c r="E68" s="1">
-        <v>243.67</v>
-      </c>
-      <c r="F68" s="1">
-        <v>252.39</v>
-      </c>
-      <c r="G68" s="1">
-        <v>253.59</v>
-      </c>
-      <c r="H68" s="1">
-        <v>241.95</v>
-      </c>
+        <v>276.92</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3368,36 +2544,24 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>43458</v>
+        <v>43521</v>
       </c>
       <c r="B69" s="2">
-        <v>43462</v>
+        <v>43525</v>
       </c>
       <c r="C69" s="1">
-        <v>239.04</v>
+        <v>282.52</v>
       </c>
       <c r="D69" s="1">
-        <v>251.4</v>
-      </c>
-      <c r="E69" s="1">
-        <v>233.76</v>
-      </c>
-      <c r="F69" s="1">
-        <v>247.75</v>
-      </c>
-      <c r="G69" s="1">
-        <v>247.01</v>
-      </c>
-      <c r="H69" s="1">
-        <v>234.37</v>
-      </c>
+        <v>275.62</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3413,36 +2577,24 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>43451</v>
+        <v>43515</v>
       </c>
       <c r="B70" s="2">
-        <v>43455</v>
+        <v>43518</v>
       </c>
       <c r="C70" s="1">
-        <v>259.39999999999998</v>
+        <v>281.24</v>
       </c>
       <c r="D70" s="1">
-        <v>260.64999999999998</v>
-      </c>
-      <c r="E70" s="1">
-        <v>239.98</v>
-      </c>
-      <c r="F70" s="1">
-        <v>240.7</v>
-      </c>
-      <c r="G70" s="1">
-        <v>266.63</v>
-      </c>
-      <c r="H70" s="1">
-        <v>254.29</v>
-      </c>
+        <v>273.45999999999998</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3458,10 +2610,303 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>43507</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C71" s="1">
+        <v>274.39</v>
+      </c>
+      <c r="D71" s="1">
+        <v>266.54000000000002</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43504</v>
+      </c>
+      <c r="C72" s="1">
+        <v>273.17</v>
+      </c>
+      <c r="D72" s="1">
+        <v>266.98</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C73" s="1">
+        <v>269.27999999999997</v>
+      </c>
+      <c r="D73" s="1">
+        <v>262.08</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43490</v>
+      </c>
+      <c r="C74" s="1">
+        <v>270.58</v>
+      </c>
+      <c r="D74" s="1">
+        <v>262.18</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C75" s="1">
+        <v>263.19</v>
+      </c>
+      <c r="D75" s="1">
+        <v>254.6</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43476</v>
+      </c>
+      <c r="C76" s="1">
+        <v>256.42</v>
+      </c>
+      <c r="D76" s="1">
+        <v>248.22</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43469</v>
+      </c>
+      <c r="C77" s="1">
+        <v>253.59</v>
+      </c>
+      <c r="D77" s="1">
+        <v>241.95</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C78" s="1">
+        <v>247.01</v>
+      </c>
+      <c r="D78" s="1">
+        <v>234.37</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43455</v>
+      </c>
+      <c r="C79" s="1">
+        <v>266.63</v>
+      </c>
+      <c r="D79" s="1">
+        <v>254.29</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExpectedMove/expected_moves.xlsx
+++ b/ExpectedMove/expected_moves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dallincoons/Projects/expected_move/ExpectedMove/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB9636-6A1B-0B40-90F7-4E9DA4332EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B8EA8-30B2-FB47-824C-A9D3F846FEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1220" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="460" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="7">
   <si>
     <t>week_start</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>expected_low</t>
+  </si>
+  <si>
+    <t>start_price</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
 </sst>
 </file>
@@ -293,15 +302,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -314,1153 +323,1831 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44085</v>
+      </c>
+      <c r="C2" s="1">
+        <v>353.34100000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>331.79899999999998</v>
+      </c>
+      <c r="E2">
+        <v>342.57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44078</v>
+      </c>
+      <c r="C3" s="1">
+        <v>356.79599999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>344.584</v>
+      </c>
+      <c r="E3">
+        <v>350.58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44071</v>
+      </c>
+      <c r="C4" s="1">
+        <v>344.476</v>
+      </c>
+      <c r="D4" s="1">
+        <v>334.48399999999998</v>
+      </c>
+      <c r="E4">
+        <v>339.48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C5" s="1">
+        <v>343.24200000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>330.43799999999999</v>
+      </c>
+      <c r="E5">
+        <v>336.84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C6" s="1">
+        <v>340.86900000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>328.27100000000002</v>
+      </c>
+      <c r="E6">
+        <v>334.57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44050</v>
+      </c>
+      <c r="C7" s="1">
+        <v>333.66800000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>319.37200000000001</v>
+      </c>
+      <c r="E7">
+        <v>326.52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44043</v>
+      </c>
+      <c r="C8" s="1">
+        <v>328.56099999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>313.19900000000001</v>
+      </c>
+      <c r="E8">
+        <v>320.88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44036</v>
+      </c>
+      <c r="C9" s="1">
+        <v>328.63</v>
+      </c>
+      <c r="D9" s="1">
+        <v>314.08999999999997</v>
+      </c>
+      <c r="E9">
+        <v>321.72000000000003</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44029</v>
+      </c>
+      <c r="C10" s="1">
+        <v>325.35700000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>309.82299999999998</v>
+      </c>
+      <c r="E10">
+        <v>317.58999999999997</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>44018</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B11" s="2">
         <v>44022</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C11" s="1">
         <v>320.483</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D11" s="1">
         <v>303.97699999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="E11">
+        <v>312.23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>44011</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B12" s="2">
         <v>44014</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C12" s="1">
         <v>310.60000000000002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D12" s="1">
         <v>290.39999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="E12">
+        <v>300.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>44004</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B13" s="2">
         <v>44008</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C13" s="1">
         <v>319.13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D13" s="1">
         <v>297.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="E13">
+        <v>308.64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>43997</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B14" s="2">
         <v>44001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C14" s="1">
         <v>316.87</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D14" s="1">
         <v>291.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="E14">
+        <v>304.20999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>43990</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B15" s="2">
         <v>43994</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C15" s="1">
         <v>327.30099999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D15" s="1">
         <v>311.37900000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="E15">
+        <v>319.33999999999997</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>43983</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B16" s="2">
         <v>43987</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C16" s="1">
         <v>312.40300000000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D16" s="1">
         <v>296.238</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="E16">
+        <v>304.32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>43977</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B17" s="2">
         <v>43980</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C17" s="1">
         <v>302.72399999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D17" s="1">
         <v>288.15699999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="E17">
+        <v>295.44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>43969</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B18" s="2">
         <v>43973</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C18" s="1">
         <v>295.642</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D18" s="1">
         <v>276.91800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="E18">
+        <v>286.27999999999997</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>43962</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B19" s="2">
         <v>43966</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C19" s="1">
         <v>300.464</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D19" s="1">
         <v>284.416</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="E19">
+        <v>292.44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>43955</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B20" s="2">
         <v>43959</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C20" s="1">
         <v>293.64100000000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D20" s="1">
         <v>271.93900000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="E20">
+        <v>282.79000000000002</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>43948</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B21" s="2">
         <v>43952</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C21" s="1">
         <v>292.67</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D21" s="1">
         <v>273.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="E21">
+        <v>282.97000000000003</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>43941</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B22" s="2">
         <v>43945</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C22" s="1">
         <v>290.10500000000002</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D22" s="1">
         <v>267.815</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="E22">
+        <v>286.64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>43934</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B23" s="2">
         <v>43938</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C23" s="1">
         <v>291.83100000000002</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D23" s="1">
         <v>264.56900000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="E23">
+        <v>278.2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>43927</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B24" s="2">
         <v>43930</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C24" s="1">
         <v>259.94099999999997</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D24" s="1">
         <v>236.43899999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="E24">
+        <v>248.19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>43920</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B25" s="2">
         <v>43924</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C25" s="1">
         <v>274.065</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D25" s="1">
         <v>232.77500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="E25">
+        <v>253.42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>43913</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B26" s="2">
         <v>43917</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C26" s="1">
         <v>251.554</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D26" s="1">
         <v>206.04599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="E26">
+        <v>228.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>43906</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B27" s="2">
         <v>43910</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C27" s="1">
         <v>292.32</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D27" s="1">
         <v>246.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="E27">
+        <v>269.32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>43899</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B28" s="2">
         <v>43903</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C28" s="1">
         <v>313.53199999999998</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D28" s="1">
         <v>281.38799999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="E28">
+        <v>297.45999999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>43892</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B29" s="2">
         <v>43896</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C29" s="1">
         <v>314.45999999999998</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D29" s="1">
         <v>278.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="E29">
+        <v>296.26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>43885</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B30" s="2">
         <v>43889</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C30" s="1">
         <v>338.75</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D30" s="1">
         <v>328.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="E30">
+        <v>333.48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>43879</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B31" s="2">
         <v>43882</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C31" s="1">
         <v>341.637</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D31" s="1">
         <v>333.56299999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="E31">
+        <v>337.6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>43871</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B32" s="2">
         <v>43875</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C32" s="1">
         <v>337.32600000000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D32" s="1">
         <v>327.07799999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="E32">
+        <v>332.2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>43864</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B33" s="2">
         <v>43868</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C33" s="1">
         <v>327.82</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D33" s="1">
         <v>315.64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="E33">
+        <v>321.73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>43857</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B34" s="2">
         <v>43861</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C34" s="1">
         <v>334.03699999999998</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D34" s="1">
         <v>323.50400000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="E34">
+        <v>328.77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>43851</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B35" s="2">
         <v>43854</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C35" s="1">
         <v>334.07</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D35" s="1">
         <v>329.83</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="E35">
+        <v>331.95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>43843</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B36" s="2">
         <v>43847</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C36" s="1">
         <v>329.14</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D36" s="1">
         <v>322.27999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="E36">
+        <v>325.70999999999998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
         <v>43836</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B37" s="2">
         <v>43840</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C37" s="1">
         <v>325.54000000000002</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D37" s="1">
         <v>319.27999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="E37">
+        <v>322.41000000000003</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
         <v>43829</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B38" s="2">
         <v>43833</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C38" s="1">
         <v>326.23</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D38" s="1">
         <v>319.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="E38">
+        <v>322.86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
         <v>43822</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B39" s="2">
         <v>43826</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C39" s="1">
         <v>324.20999999999998</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D39" s="1">
         <v>317.23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="E39">
+        <v>320.73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>43815</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B40" s="2">
         <v>43819</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C40" s="1">
         <v>320.94</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D40" s="1">
         <v>313.70999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="E40">
+        <v>317.32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
         <v>43808</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B41" s="2">
         <v>43812</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C41" s="1">
         <v>318.19</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D41" s="1">
         <v>311.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="E41">
+        <v>314.87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>43801</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B42" s="2">
         <v>43805</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C42" s="1">
         <v>317.69</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D42" s="1">
         <v>310.92</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="E42">
+        <v>314.31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
         <v>43794</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B43" s="2">
         <v>43798</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C43" s="1">
         <v>314.56</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D43" s="1">
         <v>307.39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="E43">
+        <v>310.95999999999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
         <v>43787</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B44" s="2">
         <v>43791</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C44" s="1">
         <v>315.3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D44" s="1">
         <v>308.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="E44">
+        <v>311.79000000000002</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
         <v>43780</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B45" s="2">
         <v>43784</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C45" s="1">
         <v>312.52</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D45" s="1">
         <v>305.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="E45">
+        <v>308.94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
         <v>43773</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B46" s="2">
         <v>43777</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C46" s="1">
         <v>309.85000000000002</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D46" s="1">
         <v>302.44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="E46">
+        <v>306.14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
         <v>43766</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B47" s="2">
         <v>43770</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C47" s="1">
         <v>305.2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D47" s="1">
         <v>298.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="E47">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
         <v>43759</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B48" s="2">
         <v>43763</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C48" s="1">
         <v>301.77999999999997</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D48" s="1">
         <v>294.14999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="E48">
+        <v>297.97000000000003</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
         <v>43752</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B49" s="2">
         <v>43756</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C49" s="1">
         <v>300.29000000000002</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D49" s="1">
         <v>292.26</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="E49">
+        <v>296.27999999999997</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>43745</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B50" s="2">
         <v>43749</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C50" s="1">
         <v>298.93</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D50" s="1">
         <v>289.74</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="E50">
+        <v>294.35000000000002</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
         <v>43738</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B51" s="2">
         <v>43742</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C51" s="1">
         <v>300.01</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D51" s="1">
         <v>290.77999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="E51">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
         <v>43731</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B52" s="2">
         <v>43735</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C52" s="1">
         <v>302.43</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D52" s="1">
         <v>294.13</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="E52">
+        <v>298.27999999999997</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
         <v>43724</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B53" s="2">
         <v>43728</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C53" s="1">
         <v>304.77999999999997</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D53" s="1">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="E53">
+        <v>301.08999999999997</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
         <v>43717</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B54" s="2">
         <v>43721</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C54" s="1">
         <v>302.2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D54" s="1">
         <v>293.89999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="E54">
+        <v>298.05</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
         <v>43711</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B55" s="2">
         <v>43714</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C55" s="1">
         <v>297.49</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D55" s="1">
         <v>287.39</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="E55">
+        <v>292.45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
         <v>43703</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B56" s="2">
         <v>43707</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C56" s="1">
         <v>290.10000000000002</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D56" s="1">
         <v>279.60000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="E56">
+        <v>284.85000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
         <v>43696</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B57" s="2">
         <v>43700</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C57" s="1">
         <v>293.75</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D57" s="1">
         <v>283.94</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="E57">
+        <v>288.85000000000002</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
         <v>43689</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B58" s="2">
         <v>43693</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C58" s="1">
         <v>296.31</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D58" s="1">
         <v>286.95</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="E58">
+        <v>291.62</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
         <v>43682</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B59" s="2">
         <v>43686</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C59" s="1">
         <v>296.85000000000002</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D59" s="1">
         <v>288.33</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="E59">
+        <v>292.62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
         <v>43675</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B60" s="2">
         <v>43679</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C60" s="1">
         <v>305.18</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D60" s="1">
         <v>298.86</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="E60">
+        <v>302.01</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
         <v>43668</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B61" s="2">
         <v>43672</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C61" s="1">
         <v>301.06</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D61" s="1">
         <v>293.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="E61">
+        <v>297.17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
         <v>43661</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B62" s="2">
         <v>43665</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C62" s="1">
         <v>303.86</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D62" s="1">
         <v>297.49</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="E62">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
         <v>43654</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B63" s="2">
         <v>43658</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C63" s="1">
         <v>301.94</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D63" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="E63">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
         <v>43647</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B64" s="2">
         <v>43651</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C64" s="1">
         <v>296.95999999999998</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D64" s="1">
         <v>289.04000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="E64">
+        <v>293</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
         <v>43640</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B65" s="2">
         <v>43644</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C65" s="1">
         <v>298.08999999999997</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D65" s="1">
         <v>289.87</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="E65">
+        <v>294</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
         <v>43633</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B66" s="2">
         <v>43637</v>
-      </c>
-      <c r="C57" s="1">
-        <v>293.19</v>
-      </c>
-      <c r="D57" s="1">
-        <v>285.33999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
-        <v>43626</v>
-      </c>
-      <c r="B58" s="2">
-        <v>43630</v>
-      </c>
-      <c r="C58" s="1">
-        <v>291.85000000000002</v>
-      </c>
-      <c r="D58" s="1">
-        <v>283.44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>43619</v>
-      </c>
-      <c r="B59" s="2">
-        <v>43623</v>
-      </c>
-      <c r="C59" s="1">
-        <v>279.93</v>
-      </c>
-      <c r="D59" s="1">
-        <v>270.63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>43613</v>
-      </c>
-      <c r="B60" s="2">
-        <v>43616</v>
-      </c>
-      <c r="C60" s="1">
-        <v>286.89999999999998</v>
-      </c>
-      <c r="D60" s="1">
-        <v>278.63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>43605</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43609</v>
-      </c>
-      <c r="C61" s="1">
-        <v>290</v>
-      </c>
-      <c r="D61" s="1">
-        <v>281.63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>43598</v>
-      </c>
-      <c r="B62" s="2">
-        <v>43602</v>
-      </c>
-      <c r="C62" s="1">
-        <v>292.32</v>
-      </c>
-      <c r="D62" s="1">
-        <v>283.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
-        <v>43591</v>
-      </c>
-      <c r="B63" s="2">
-        <v>43595</v>
-      </c>
-      <c r="C63" s="1">
-        <v>297.17</v>
-      </c>
-      <c r="D63" s="1">
-        <v>290.87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
-        <v>43584</v>
-      </c>
-      <c r="B64" s="2">
-        <v>43588</v>
-      </c>
-      <c r="C64" s="1">
-        <v>296.5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>290.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
-        <v>43577</v>
-      </c>
-      <c r="B65" s="2">
-        <v>43581</v>
-      </c>
-      <c r="C65" s="1">
-        <v>293.19</v>
-      </c>
-      <c r="D65" s="1">
-        <v>286.85000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
-        <v>43570</v>
-      </c>
-      <c r="B66" s="2">
-        <v>43574</v>
       </c>
       <c r="C66" s="1">
         <v>293.19</v>
       </c>
       <c r="D66" s="1">
+        <v>285.33999999999997</v>
+      </c>
+      <c r="E66">
+        <v>289.26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>43626</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43630</v>
+      </c>
+      <c r="C67" s="1">
+        <v>291.85000000000002</v>
+      </c>
+      <c r="D67" s="1">
+        <v>283.44</v>
+      </c>
+      <c r="E67">
+        <v>287.64999999999998</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>43619</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C68" s="1">
+        <v>279.93</v>
+      </c>
+      <c r="D68" s="1">
+        <v>270.63</v>
+      </c>
+      <c r="E68">
+        <v>275.27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C69" s="1">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="D69" s="1">
+        <v>278.63</v>
+      </c>
+      <c r="E69">
+        <v>282.77999999999997</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>43605</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43609</v>
+      </c>
+      <c r="C70" s="1">
+        <v>290</v>
+      </c>
+      <c r="D70" s="1">
+        <v>281.63</v>
+      </c>
+      <c r="E70">
+        <v>285.83999999999997</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>43598</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43602</v>
+      </c>
+      <c r="C71" s="1">
+        <v>292.32</v>
+      </c>
+      <c r="D71" s="1">
+        <v>283.8</v>
+      </c>
+      <c r="E71">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43595</v>
+      </c>
+      <c r="C72" s="1">
+        <v>297.17</v>
+      </c>
+      <c r="D72" s="1">
+        <v>290.87</v>
+      </c>
+      <c r="E72">
+        <v>294.02999999999997</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>43584</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43588</v>
+      </c>
+      <c r="C73" s="1">
+        <v>296.5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>290.25</v>
+      </c>
+      <c r="E73">
+        <v>293.41000000000003</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>43577</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43581</v>
+      </c>
+      <c r="C74" s="1">
+        <v>293.19</v>
+      </c>
+      <c r="D74" s="1">
+        <v>286.85000000000002</v>
+      </c>
+      <c r="E74">
+        <v>290.02</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43574</v>
+      </c>
+      <c r="C75" s="1">
+        <v>293.19</v>
+      </c>
+      <c r="D75" s="1">
         <v>287.14</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="E75">
+        <v>290.16000000000003</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
         <v>43563</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B76" s="2">
         <v>43567</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C76" s="1">
         <v>291.89999999999998</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D76" s="1">
         <v>285.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="E76">
+        <v>288.57</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
         <v>43556</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B77" s="2">
         <v>43560</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C77" s="1">
         <v>286.06</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D77" s="1">
         <v>278.93</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="E77">
+        <v>282.48</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
         <v>43549</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B78" s="2">
         <v>43553</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C78" s="1">
         <v>283.33</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D78" s="1">
         <v>275.11</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="E78">
+        <v>279.25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
         <v>43542</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B79" s="2">
         <v>43546</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C79" s="1">
         <v>284.55</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D79" s="1">
         <v>278.14</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="E79">
+        <v>281.31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
         <v>43535</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B80" s="2">
         <v>43539</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C80" s="1">
         <v>278.36</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D80" s="1">
         <v>270.58</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="E80">
+        <v>274.45999999999998</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
         <v>43528</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B81" s="2">
         <v>43532</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C81" s="1">
         <v>283.89999999999998</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D81" s="1">
         <v>276.92</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="E81">
+        <v>280.42</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
         <v>43521</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B82" s="2">
         <v>43525</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C82" s="1">
         <v>282.52</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D82" s="1">
         <v>275.62</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="E82">
+        <v>279.14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
         <v>43515</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B83" s="2">
         <v>43518</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C83" s="1">
         <v>281.24</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D83" s="1">
         <v>273.45999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="E83">
+        <v>277.37</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
         <v>43507</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B84" s="2">
         <v>43511</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C84" s="1">
         <v>274.39</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D84" s="1">
         <v>266.54000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="E84">
+        <v>270.47000000000003</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
         <v>43500</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B85" s="2">
         <v>43504</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C85" s="1">
         <v>273.17</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D85" s="1">
         <v>266.98</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="E85">
+        <v>270.06</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
         <v>43493</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B86" s="2">
         <v>43497</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C86" s="1">
         <v>269.27999999999997</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D86" s="1">
         <v>262.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="E86">
+        <v>265.77999999999997</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
         <v>43487</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B87" s="2">
         <v>43490</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C87" s="1">
         <v>270.58</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D87" s="1">
         <v>262.18</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="E87">
+        <v>266.45999999999998</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
         <v>43479</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B88" s="2">
         <v>43483</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C88" s="1">
         <v>263.19</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D88" s="1">
         <v>254.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="E88">
+        <v>258.98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
         <v>43472</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B89" s="2">
         <v>43476</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C89" s="1">
         <v>256.42</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D89" s="1">
         <v>248.22</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2">
+      <c r="E89">
+        <v>252.39</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
         <v>43465</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B90" s="2">
         <v>43469</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C90" s="1">
         <v>253.59</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D90" s="1">
         <v>241.95</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
+      <c r="E90">
+        <v>247.75</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
         <v>43458</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B91" s="2">
         <v>43462</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C91" s="1">
         <v>247.01</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D91" s="1">
         <v>234.37</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
+      <c r="E91">
+        <v>240.7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
         <v>43451</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B92" s="2">
         <v>43455</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C92" s="1">
         <v>266.63</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D92" s="1">
         <v>254.29</v>
+      </c>
+      <c r="E92">
+        <v>260.47000000000003</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
